--- a/Municípios/Data/PEVS_area.xlsx
+++ b/Municípios/Data/PEVS_area.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F234"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,6 +388,11 @@
           <t>Unidade de Medida</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Colocação</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -407,16 +412,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G2">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -432,21 +440,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G3">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -462,21 +473,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G4">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +511,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E5">
@@ -508,6 +522,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -527,16 +544,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G6">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -552,21 +572,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G7">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +610,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G8">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -617,7 +643,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E9">
@@ -628,6 +654,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G9">
+        <v>19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -642,7 +671,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -651,12 +680,15 @@
         </is>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G10">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -672,21 +704,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G11">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -702,21 +737,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G12">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -737,7 +775,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E13">
@@ -748,6 +786,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -762,21 +803,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G14">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -792,21 +836,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -838,6 +885,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -868,6 +918,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -898,6 +951,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -928,6 +984,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G19">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -958,6 +1017,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -988,6 +1050,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G21">
+        <v>22</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1018,6 +1083,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G22">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1048,6 +1116,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1078,6 +1149,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1108,6 +1182,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1138,6 +1215,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G26">
+        <v>21</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1157,16 +1237,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E27">
-        <v>270</v>
+        <v>664</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G27">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1187,16 +1270,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E28">
-        <v>270</v>
+        <v>664</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G28">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1217,16 +1303,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E29">
-        <v>260</v>
+        <v>646</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G29">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1247,16 +1336,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E30">
-        <v>260</v>
+        <v>646</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G30">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1277,16 +1369,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E31">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G31">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1307,16 +1402,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E32">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G32">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1337,16 +1435,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E33">
-        <v>646</v>
+        <v>260</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G33">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1367,16 +1468,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E34">
-        <v>646</v>
+        <v>260</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G34">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1397,16 +1501,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E35">
-        <v>664</v>
+        <v>255</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G35">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1427,16 +1534,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E36">
-        <v>664</v>
+        <v>255</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G36">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1457,16 +1567,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E37">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G37">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1487,16 +1600,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E38">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G38">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1528,6 +1644,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1558,6 +1677,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1577,16 +1699,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E41">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G41">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1607,16 +1732,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E42">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G42">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1648,6 +1776,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1678,6 +1809,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1697,16 +1831,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E45">
-        <v>660</v>
+        <v>598</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G45">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1727,16 +1864,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E46">
-        <v>660</v>
+        <v>598</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G46">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1757,16 +1897,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E47">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G47">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1787,16 +1930,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E48">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G48">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -1817,16 +1963,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E49">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G49">
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -1847,16 +1996,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E50">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G50">
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1877,16 +2029,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E51">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G51">
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1907,16 +2062,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E52">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G52">
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -1948,6 +2106,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1978,6 +2139,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1997,16 +2161,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E55">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G55">
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2027,16 +2194,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E56">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G56">
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -2057,16 +2227,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G57">
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -2087,16 +2260,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E58">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G58">
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -2117,7 +2293,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E59">
@@ -2128,6 +2304,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G59">
+        <v>17</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2147,7 +2326,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E60">
@@ -2158,6 +2337,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G60">
+        <v>17</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2177,7 +2359,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E61">
@@ -2188,6 +2370,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G61">
+        <v>17</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2207,7 +2392,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E62">
@@ -2218,6 +2403,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G62">
+        <v>17</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2237,7 +2425,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E63">
@@ -2248,6 +2436,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G63">
+        <v>17</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2267,7 +2458,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E64">
@@ -2278,6 +2469,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G64">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2297,16 +2491,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E65">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G65">
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -2327,16 +2524,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E66">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G66">
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -2357,16 +2557,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E67">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G67">
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -2387,16 +2590,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E68">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G68">
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -2417,16 +2623,19 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E69">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G69">
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -2447,16 +2656,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E70">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G70">
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -2477,16 +2689,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E71">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G71">
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -2507,16 +2722,19 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E72">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G72">
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -2548,6 +2766,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G73">
+        <v>12</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2578,6 +2799,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G74">
+        <v>12</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2597,16 +2821,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E75">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G75">
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -2627,16 +2854,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E76">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G76">
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -2668,6 +2898,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2698,6 +2931,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2712,21 +2948,24 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>2890</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G79">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2742,7 +2981,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2751,12 +2990,15 @@
         </is>
       </c>
       <c r="E80">
-        <v>2890</v>
+        <v>2870</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G80">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2772,21 +3014,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E81">
-        <v>2870</v>
+        <v>2856</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G81">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2802,21 +3047,24 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>2837</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G82">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2837,16 +3085,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E83">
-        <v>2856</v>
+        <v>2731</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G83">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2867,16 +3118,19 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E84">
-        <v>2837</v>
+        <v>2713</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G84">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2892,21 +3146,24 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E85">
-        <v>19</v>
+        <v>2588</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G85">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2922,21 +3179,24 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E86">
-        <v>2731</v>
+        <v>2578</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G86">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2952,21 +3212,24 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E87">
-        <v>2713</v>
+        <v>20</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G87">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2987,16 +3250,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E88">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G88">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3012,21 +3278,24 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E89">
-        <v>2588</v>
+        <v>19</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G89">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3042,21 +3311,24 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E90">
-        <v>2578</v>
+        <v>18</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G90">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3088,6 +3360,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3107,16 +3382,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E92">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G92">
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -3137,16 +3415,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E93">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G93">
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -3167,16 +3448,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E94">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G94">
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -3197,16 +3481,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E95">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G95">
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -3227,16 +3514,19 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E96">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G96">
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -3257,16 +3547,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E97">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G97">
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -3287,16 +3580,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E98">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G98">
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -3317,16 +3613,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E99">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G99">
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -3347,16 +3646,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E100">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G100">
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -3377,16 +3679,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E101">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G101">
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -3407,16 +3712,19 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E102">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G102">
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -3437,16 +3745,19 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E103">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G103">
+        <v>9</v>
       </c>
     </row>
     <row r="104">
@@ -3478,6 +3789,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G104">
+        <v>10</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3508,6 +3822,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G105">
+        <v>10</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3538,6 +3855,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G106">
+        <v>10</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3568,6 +3888,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G107">
+        <v>10</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3598,6 +3921,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G108">
+        <v>9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3628,6 +3954,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3647,16 +3976,19 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E110">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G110">
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -3677,16 +4009,19 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E111">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G111">
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -3718,6 +4053,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G112">
+        <v>21</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3748,6 +4086,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G113">
+        <v>21</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3778,6 +4119,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G114">
+        <v>20</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3808,6 +4152,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G115">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3838,6 +4185,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G116">
+        <v>21</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3868,6 +4218,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G117">
+        <v>21</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3898,6 +4251,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G118">
+        <v>21</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3928,6 +4284,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G119">
+        <v>21</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3958,6 +4317,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G120">
+        <v>22</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3988,6 +4350,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G121">
+        <v>22</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4007,16 +4372,19 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E122">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G122">
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -4037,16 +4405,19 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E123">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G123">
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -4067,16 +4438,19 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E124">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G124">
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -4097,16 +4471,19 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E125">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G125">
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -4127,16 +4504,19 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E126">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G126">
+        <v>5</v>
       </c>
     </row>
     <row r="127">
@@ -4157,16 +4537,19 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E127">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G127">
+        <v>5</v>
       </c>
     </row>
     <row r="128">
@@ -4187,16 +4570,19 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E128">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G128">
+        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -4217,16 +4603,19 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E129">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G129">
+        <v>4</v>
       </c>
     </row>
     <row r="130">
@@ -4247,16 +4636,19 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E130">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G130">
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -4277,16 +4669,19 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E131">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G131">
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -4318,6 +4713,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G132">
+        <v>12</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4348,6 +4746,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G133">
+        <v>12</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4367,16 +4768,19 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E134">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G134">
+        <v>11</v>
       </c>
     </row>
     <row r="135">
@@ -4397,16 +4801,19 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E135">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G135">
+        <v>11</v>
       </c>
     </row>
     <row r="136">
@@ -4427,16 +4834,19 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E136">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G136">
+        <v>11</v>
       </c>
     </row>
     <row r="137">
@@ -4457,16 +4867,19 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E137">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G137">
+        <v>11</v>
       </c>
     </row>
     <row r="138">
@@ -4487,7 +4900,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E138">
@@ -4498,6 +4911,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G138">
+        <v>11</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4517,7 +4933,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E139">
@@ -4528,6 +4944,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G139">
+        <v>11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4547,16 +4966,19 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E140">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G140">
+        <v>11</v>
       </c>
     </row>
     <row r="141">
@@ -4577,16 +4999,19 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E141">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G141">
+        <v>11</v>
       </c>
     </row>
     <row r="142">
@@ -4607,16 +5032,19 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E142">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G142">
+        <v>11</v>
       </c>
     </row>
     <row r="143">
@@ -4637,16 +5065,19 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E143">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G143">
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -4678,6 +5109,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G144">
+        <v>16</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4708,6 +5142,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G145">
+        <v>16</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4738,6 +5175,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G146">
+        <v>16</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4768,6 +5208,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G147">
+        <v>16</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4798,6 +5241,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G148">
+        <v>17</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4828,6 +5274,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G149">
+        <v>17</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4858,6 +5307,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G150">
+        <v>19</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4888,6 +5340,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G151">
+        <v>19</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4918,6 +5373,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G152">
+        <v>18</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4948,6 +5406,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G153">
+        <v>18</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4978,6 +5439,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G154">
+        <v>18</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5008,6 +5472,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G155">
+        <v>18</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5038,6 +5505,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G156">
+        <v>18</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5068,6 +5538,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G157">
+        <v>18</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5098,6 +5571,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G158">
+        <v>18</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5128,6 +5604,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G159">
+        <v>18</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5158,6 +5637,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G160">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5188,6 +5670,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G161">
+        <v>8</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5218,6 +5703,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G162">
+        <v>9</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5248,6 +5736,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G163">
+        <v>9</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5278,6 +5769,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G164">
+        <v>9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5308,6 +5802,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G165">
+        <v>9</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5338,6 +5835,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G166">
+        <v>10</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5368,6 +5868,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G167">
+        <v>10</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5398,6 +5901,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G168">
+        <v>10</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5428,6 +5934,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G169">
+        <v>10</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5447,16 +5956,19 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E170">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G170">
+        <v>8</v>
       </c>
     </row>
     <row r="171">
@@ -5477,16 +5989,19 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E171">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G171">
+        <v>8</v>
       </c>
     </row>
     <row r="172">
@@ -5502,21 +6017,24 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E172">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G172">
+        <v>8</v>
       </c>
     </row>
     <row r="173">
@@ -5532,21 +6050,24 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E173">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G173">
+        <v>8</v>
       </c>
     </row>
     <row r="174">
@@ -5562,7 +6083,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5571,12 +6092,15 @@
         </is>
       </c>
       <c r="E174">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G174">
+        <v>8</v>
       </c>
     </row>
     <row r="175">
@@ -5592,21 +6116,24 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E175">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G175">
+        <v>8</v>
       </c>
     </row>
     <row r="176">
@@ -5627,16 +6154,19 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E176">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G176">
+        <v>8</v>
       </c>
     </row>
     <row r="177">
@@ -5657,7 +6187,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E177">
@@ -5668,6 +6198,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G177">
+        <v>8</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5682,7 +6215,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5691,12 +6224,15 @@
         </is>
       </c>
       <c r="E178">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G178">
+        <v>8</v>
       </c>
     </row>
     <row r="179">
@@ -5712,21 +6248,24 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E179">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G179">
+        <v>9</v>
       </c>
     </row>
     <row r="180">
@@ -5742,21 +6281,24 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E180">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G180">
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -5777,7 +6319,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E181">
@@ -5788,6 +6330,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G181">
+        <v>2</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5802,21 +6347,24 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E182">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G182">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -5832,21 +6380,24 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E183">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G183">
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -5878,6 +6429,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G184">
+        <v>2</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5897,16 +6451,19 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E185">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G185">
+        <v>14</v>
       </c>
     </row>
     <row r="186">
@@ -5927,16 +6484,19 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E186">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G186">
+        <v>14</v>
       </c>
     </row>
     <row r="187">
@@ -5957,7 +6517,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E187">
@@ -5968,6 +6528,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G187">
+        <v>15</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5987,7 +6550,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E188">
@@ -5998,6 +6561,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G188">
+        <v>15</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6017,7 +6583,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E189">
@@ -6028,6 +6594,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G189">
+        <v>15</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6047,7 +6616,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E190">
@@ -6058,6 +6627,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G190">
+        <v>15</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6077,7 +6649,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E191">
@@ -6088,6 +6660,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G191">
+        <v>14</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6107,7 +6682,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E192">
@@ -6118,6 +6693,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G192">
+        <v>14</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6137,16 +6715,19 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E193">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G193">
+        <v>15</v>
       </c>
     </row>
     <row r="194">
@@ -6167,16 +6748,19 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E194">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G194">
+        <v>15</v>
       </c>
     </row>
     <row r="195">
@@ -6197,16 +6781,19 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E195">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G195">
+        <v>12</v>
       </c>
     </row>
     <row r="196">
@@ -6227,16 +6814,19 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E196">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G196">
+        <v>12</v>
       </c>
     </row>
     <row r="197">
@@ -6257,16 +6847,19 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E197">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G197">
+        <v>13</v>
       </c>
     </row>
     <row r="198">
@@ -6287,16 +6880,19 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E198">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G198">
+        <v>13</v>
       </c>
     </row>
     <row r="199">
@@ -6328,6 +6924,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G199">
+        <v>13</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6358,6 +6957,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G200">
+        <v>13</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6388,6 +6990,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G201">
+        <v>13</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6418,6 +7023,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G202">
+        <v>13</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6448,6 +7056,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G203">
+        <v>13</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6478,6 +7089,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G204">
+        <v>13</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6508,6 +7122,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6538,6 +7155,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6568,6 +7188,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G207">
+        <v>3</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6598,6 +7221,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6628,6 +7254,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6658,6 +7287,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6688,6 +7320,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G211">
+        <v>4</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6718,6 +7353,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G212">
+        <v>4</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6748,6 +7386,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G213">
+        <v>4</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6778,6 +7419,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6797,16 +7441,19 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E215">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G215">
+        <v>16</v>
       </c>
     </row>
     <row r="216">
@@ -6827,16 +7474,19 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E216">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G216">
+        <v>16</v>
       </c>
     </row>
     <row r="217">
@@ -6857,16 +7507,19 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E217">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G217">
+        <v>18</v>
       </c>
     </row>
     <row r="218">
@@ -6887,16 +7540,19 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E218">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G218">
+        <v>18</v>
       </c>
     </row>
     <row r="219">
@@ -6917,16 +7573,19 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E219">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G219">
+        <v>19</v>
       </c>
     </row>
     <row r="220">
@@ -6947,16 +7606,19 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E220">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G220">
+        <v>19</v>
       </c>
     </row>
     <row r="221">
@@ -6977,7 +7639,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E221">
@@ -6988,6 +7650,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G221">
+        <v>19</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7007,7 +7672,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E222">
@@ -7018,6 +7683,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G222">
+        <v>19</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7037,16 +7705,19 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E223">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G223">
+        <v>19</v>
       </c>
     </row>
     <row r="224">
@@ -7067,16 +7738,19 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E224">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G224">
+        <v>19</v>
       </c>
     </row>
     <row r="225">
@@ -7097,16 +7771,19 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E225">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G225">
+        <v>15</v>
       </c>
     </row>
     <row r="226">
@@ -7127,16 +7804,19 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E226">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G226">
+        <v>15</v>
       </c>
     </row>
     <row r="227">
@@ -7168,6 +7848,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G227">
+        <v>14</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7198,6 +7881,9 @@
           <t>Hectares</t>
         </is>
       </c>
+      <c r="G228">
+        <v>14</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7217,16 +7903,19 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E229">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G229">
+        <v>14</v>
       </c>
     </row>
     <row r="230">
@@ -7247,16 +7936,19 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E230">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G230">
+        <v>14</v>
       </c>
     </row>
     <row r="231">
@@ -7277,16 +7969,19 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E231">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G231">
+        <v>16</v>
       </c>
     </row>
     <row r="232">
@@ -7307,16 +8002,19 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E232">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G232">
+        <v>16</v>
       </c>
     </row>
     <row r="233">
@@ -7337,16 +8035,19 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E233">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G233">
+        <v>15</v>
       </c>
     </row>
     <row r="234">
@@ -7367,16 +8068,19 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E234">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
           <t>Hectares</t>
         </is>
+      </c>
+      <c r="G234">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Municípios/Data/PEVS_area.xlsx
+++ b/Municípios/Data/PEVS_area.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,6 +360,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -410,10 +417,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D2" s="2">
+        <v>44561</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -443,10 +448,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D3" s="2">
+        <v>44926</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -476,10 +479,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D4" s="2">
+        <v>43830</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -509,10 +510,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D5" s="2">
+        <v>44196</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -542,10 +541,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D6" s="2">
+        <v>44561</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -575,10 +572,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D7" s="2">
+        <v>44926</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -608,10 +603,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D8" s="2">
+        <v>43465</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -641,10 +634,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D9" s="2">
+        <v>43830</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -674,10 +665,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D10" s="2">
+        <v>44196</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -707,10 +696,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D11" s="2">
+        <v>43465</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -740,10 +727,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D12" s="2">
+        <v>43465</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -773,10 +758,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D13" s="2">
+        <v>43830</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -806,10 +789,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D14" s="2">
+        <v>44196</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -839,10 +820,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D15" s="2">
+        <v>44561</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -872,10 +851,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D16" s="2">
+        <v>44926</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -905,10 +882,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D17" s="2">
+        <v>43465</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -938,10 +913,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D18" s="2">
+        <v>43465</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -971,10 +944,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D19" s="2">
+        <v>43830</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1004,10 +975,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D20" s="2">
+        <v>43830</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1037,10 +1006,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D21" s="2">
+        <v>44196</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1070,10 +1037,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D22" s="2">
+        <v>44196</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1103,10 +1068,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D23" s="2">
+        <v>44561</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1136,10 +1099,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D24" s="2">
+        <v>44561</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1169,10 +1130,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D25" s="2">
+        <v>44926</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1202,10 +1161,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D26" s="2">
+        <v>44926</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1235,10 +1192,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D27" s="2">
+        <v>44926</v>
       </c>
       <c r="E27">
         <v>664</v>
@@ -1268,10 +1223,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D28" s="2">
+        <v>44926</v>
       </c>
       <c r="E28">
         <v>664</v>
@@ -1301,10 +1254,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D29" s="2">
+        <v>44561</v>
       </c>
       <c r="E29">
         <v>646</v>
@@ -1334,10 +1285,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D30" s="2">
+        <v>44561</v>
       </c>
       <c r="E30">
         <v>646</v>
@@ -1367,10 +1316,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D31" s="2">
+        <v>43465</v>
       </c>
       <c r="E31">
         <v>270</v>
@@ -1400,10 +1347,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D32" s="2">
+        <v>43465</v>
       </c>
       <c r="E32">
         <v>270</v>
@@ -1433,10 +1378,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D33" s="2">
+        <v>43830</v>
       </c>
       <c r="E33">
         <v>260</v>
@@ -1466,10 +1409,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D34" s="2">
+        <v>43830</v>
       </c>
       <c r="E34">
         <v>260</v>
@@ -1499,10 +1440,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D35" s="2">
+        <v>44196</v>
       </c>
       <c r="E35">
         <v>255</v>
@@ -1532,10 +1471,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D36" s="2">
+        <v>44196</v>
       </c>
       <c r="E36">
         <v>255</v>
@@ -1565,10 +1502,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D37" s="2">
+        <v>44926</v>
       </c>
       <c r="E37">
         <v>660</v>
@@ -1598,10 +1533,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D38" s="2">
+        <v>44926</v>
       </c>
       <c r="E38">
         <v>660</v>
@@ -1631,10 +1564,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D39" s="2">
+        <v>43830</v>
       </c>
       <c r="E39">
         <v>650</v>
@@ -1664,10 +1595,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D40" s="2">
+        <v>43830</v>
       </c>
       <c r="E40">
         <v>650</v>
@@ -1697,10 +1626,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D41" s="2">
+        <v>43465</v>
       </c>
       <c r="E41">
         <v>632</v>
@@ -1730,10 +1657,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D42" s="2">
+        <v>43465</v>
       </c>
       <c r="E42">
         <v>632</v>
@@ -1763,10 +1688,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D43" s="2">
+        <v>44561</v>
       </c>
       <c r="E43">
         <v>615</v>
@@ -1796,10 +1719,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D44" s="2">
+        <v>44561</v>
       </c>
       <c r="E44">
         <v>615</v>
@@ -1829,10 +1750,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D45" s="2">
+        <v>44196</v>
       </c>
       <c r="E45">
         <v>598</v>
@@ -1862,10 +1781,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D46" s="2">
+        <v>44196</v>
       </c>
       <c r="E46">
         <v>598</v>
@@ -1895,10 +1812,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D47" s="2">
+        <v>43830</v>
       </c>
       <c r="E47">
         <v>275</v>
@@ -1928,10 +1843,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D48" s="2">
+        <v>43830</v>
       </c>
       <c r="E48">
         <v>275</v>
@@ -1961,10 +1874,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D49" s="2">
+        <v>44926</v>
       </c>
       <c r="E49">
         <v>265</v>
@@ -1994,10 +1905,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D50" s="2">
+        <v>44926</v>
       </c>
       <c r="E50">
         <v>265</v>
@@ -2027,10 +1936,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D51" s="2">
+        <v>43465</v>
       </c>
       <c r="E51">
         <v>251</v>
@@ -2060,10 +1967,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D52" s="2">
+        <v>43465</v>
       </c>
       <c r="E52">
         <v>251</v>
@@ -2093,10 +1998,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D53" s="2">
+        <v>44561</v>
       </c>
       <c r="E53">
         <v>248</v>
@@ -2126,10 +2029,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D54" s="2">
+        <v>44561</v>
       </c>
       <c r="E54">
         <v>248</v>
@@ -2159,10 +2060,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D55" s="2">
+        <v>44196</v>
       </c>
       <c r="E55">
         <v>220</v>
@@ -2192,10 +2091,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D56" s="2">
+        <v>44196</v>
       </c>
       <c r="E56">
         <v>220</v>
@@ -2225,10 +2122,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D57" s="2">
+        <v>44926</v>
       </c>
       <c r="E57">
         <v>32</v>
@@ -2258,10 +2153,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D58" s="2">
+        <v>44926</v>
       </c>
       <c r="E58">
         <v>32</v>
@@ -2291,10 +2184,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D59" s="2">
+        <v>43465</v>
       </c>
       <c r="E59">
         <v>14</v>
@@ -2324,10 +2215,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D60" s="2">
+        <v>43465</v>
       </c>
       <c r="E60">
         <v>14</v>
@@ -2357,10 +2246,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D61" s="2">
+        <v>43830</v>
       </c>
       <c r="E61">
         <v>14</v>
@@ -2390,10 +2277,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D62" s="2">
+        <v>43830</v>
       </c>
       <c r="E62">
         <v>14</v>
@@ -2423,10 +2308,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D63" s="2">
+        <v>44196</v>
       </c>
       <c r="E63">
         <v>14</v>
@@ -2456,10 +2339,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D64" s="2">
+        <v>44196</v>
       </c>
       <c r="E64">
         <v>14</v>
@@ -2489,10 +2370,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D65" s="2">
+        <v>44561</v>
       </c>
       <c r="E65">
         <v>14</v>
@@ -2522,10 +2401,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D66" s="2">
+        <v>44561</v>
       </c>
       <c r="E66">
         <v>14</v>
@@ -2555,10 +2432,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D67" s="2">
+        <v>43830</v>
       </c>
       <c r="E67">
         <v>96</v>
@@ -2588,10 +2463,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D68" s="2">
+        <v>43830</v>
       </c>
       <c r="E68">
         <v>96</v>
@@ -2621,10 +2494,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D69" s="2">
+        <v>44926</v>
       </c>
       <c r="E69">
         <v>94</v>
@@ -2654,10 +2525,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D70" s="2">
+        <v>44926</v>
       </c>
       <c r="E70">
         <v>94</v>
@@ -2687,10 +2556,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D71" s="2">
+        <v>43465</v>
       </c>
       <c r="E71">
         <v>88</v>
@@ -2720,10 +2587,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D72" s="2">
+        <v>43465</v>
       </c>
       <c r="E72">
         <v>88</v>
@@ -2753,10 +2618,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D73" s="2">
+        <v>44561</v>
       </c>
       <c r="E73">
         <v>88</v>
@@ -2786,10 +2649,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D74" s="2">
+        <v>44561</v>
       </c>
       <c r="E74">
         <v>88</v>
@@ -2819,10 +2680,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D75" s="2">
+        <v>44196</v>
       </c>
       <c r="E75">
         <v>84</v>
@@ -2852,10 +2711,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D76" s="2">
+        <v>44196</v>
       </c>
       <c r="E76">
         <v>84</v>
@@ -2885,10 +2742,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D77" s="2">
+        <v>43465</v>
       </c>
       <c r="E77">
         <v>3033</v>
@@ -2918,10 +2773,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D78" s="2">
+        <v>43465</v>
       </c>
       <c r="E78">
         <v>3013</v>
@@ -2951,10 +2804,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D79" s="2">
+        <v>43830</v>
       </c>
       <c r="E79">
         <v>2890</v>
@@ -2984,10 +2835,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D80" s="2">
+        <v>43830</v>
       </c>
       <c r="E80">
         <v>2870</v>
@@ -3017,10 +2866,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D81" s="2">
+        <v>44196</v>
       </c>
       <c r="E81">
         <v>2856</v>
@@ -3050,10 +2897,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D82" s="2">
+        <v>44196</v>
       </c>
       <c r="E82">
         <v>2837</v>
@@ -3083,10 +2928,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D83" s="2">
+        <v>44561</v>
       </c>
       <c r="E83">
         <v>2731</v>
@@ -3116,10 +2959,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D84" s="2">
+        <v>44561</v>
       </c>
       <c r="E84">
         <v>2713</v>
@@ -3149,10 +2990,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D85" s="2">
+        <v>44926</v>
       </c>
       <c r="E85">
         <v>2588</v>
@@ -3182,10 +3021,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D86" s="2">
+        <v>44926</v>
       </c>
       <c r="E86">
         <v>2578</v>
@@ -3215,10 +3052,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D87" s="2">
+        <v>43465</v>
       </c>
       <c r="E87">
         <v>20</v>
@@ -3248,10 +3083,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D88" s="2">
+        <v>43830</v>
       </c>
       <c r="E88">
         <v>20</v>
@@ -3281,10 +3114,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D89" s="2">
+        <v>44196</v>
       </c>
       <c r="E89">
         <v>19</v>
@@ -3314,10 +3145,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D90" s="2">
+        <v>44561</v>
       </c>
       <c r="E90">
         <v>18</v>
@@ -3347,10 +3176,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D91" s="2">
+        <v>44926</v>
       </c>
       <c r="E91">
         <v>10</v>
@@ -3380,10 +3207,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D92" s="2">
+        <v>43830</v>
       </c>
       <c r="E92">
         <v>246</v>
@@ -3413,10 +3238,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D93" s="2">
+        <v>43830</v>
       </c>
       <c r="E93">
         <v>246</v>
@@ -3446,10 +3269,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D94" s="2">
+        <v>44561</v>
       </c>
       <c r="E94">
         <v>244</v>
@@ -3479,10 +3300,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D95" s="2">
+        <v>44561</v>
       </c>
       <c r="E95">
         <v>244</v>
@@ -3512,10 +3331,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D96" s="2">
+        <v>44926</v>
       </c>
       <c r="E96">
         <v>244</v>
@@ -3545,10 +3362,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D97" s="2">
+        <v>44926</v>
       </c>
       <c r="E97">
         <v>244</v>
@@ -3578,10 +3393,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D98" s="2">
+        <v>44196</v>
       </c>
       <c r="E98">
         <v>206</v>
@@ -3611,10 +3424,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D99" s="2">
+        <v>44196</v>
       </c>
       <c r="E99">
         <v>206</v>
@@ -3644,10 +3455,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D100" s="2">
+        <v>43465</v>
       </c>
       <c r="E100">
         <v>193</v>
@@ -3677,10 +3486,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D101" s="2">
+        <v>43465</v>
       </c>
       <c r="E101">
         <v>193</v>
@@ -3710,10 +3517,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D102" s="2">
+        <v>44926</v>
       </c>
       <c r="E102">
         <v>142</v>
@@ -3743,10 +3548,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D103" s="2">
+        <v>44926</v>
       </c>
       <c r="E103">
         <v>142</v>
@@ -3776,10 +3579,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D104" s="2">
+        <v>43830</v>
       </c>
       <c r="E104">
         <v>140</v>
@@ -3809,10 +3610,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D105" s="2">
+        <v>43830</v>
       </c>
       <c r="E105">
         <v>140</v>
@@ -3842,10 +3641,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D106" s="2">
+        <v>44196</v>
       </c>
       <c r="E106">
         <v>140</v>
@@ -3875,10 +3672,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D107" s="2">
+        <v>44196</v>
       </c>
       <c r="E107">
         <v>140</v>
@@ -3908,10 +3703,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D108" s="2">
+        <v>44561</v>
       </c>
       <c r="E108">
         <v>140</v>
@@ -3941,10 +3734,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D109" s="2">
+        <v>44561</v>
       </c>
       <c r="E109">
         <v>140</v>
@@ -3974,10 +3765,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D110" s="2">
+        <v>43465</v>
       </c>
       <c r="E110">
         <v>132</v>
@@ -4007,10 +3796,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D111" s="2">
+        <v>43465</v>
       </c>
       <c r="E111">
         <v>132</v>
@@ -4040,10 +3827,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D112" s="2">
+        <v>43465</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -4073,10 +3858,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D113" s="2">
+        <v>43465</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -4106,10 +3889,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D114" s="2">
+        <v>43830</v>
       </c>
       <c r="E114">
         <v>3</v>
@@ -4139,10 +3920,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D115" s="2">
+        <v>43830</v>
       </c>
       <c r="E115">
         <v>3</v>
@@ -4172,10 +3951,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D116" s="2">
+        <v>44196</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -4205,10 +3982,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D117" s="2">
+        <v>44196</v>
       </c>
       <c r="E117">
         <v>3</v>
@@ -4238,10 +4013,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D118" s="2">
+        <v>44561</v>
       </c>
       <c r="E118">
         <v>3</v>
@@ -4271,10 +4044,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D119" s="2">
+        <v>44561</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -4304,10 +4075,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D120" s="2">
+        <v>44926</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -4318,7 +4087,7 @@
         </is>
       </c>
       <c r="G120">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
@@ -4337,10 +4106,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D121" s="2">
+        <v>44926</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -4351,7 +4118,7 @@
         </is>
       </c>
       <c r="G121">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
@@ -4370,10 +4137,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D122" s="2">
+        <v>44196</v>
       </c>
       <c r="E122">
         <v>424</v>
@@ -4403,10 +4168,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D123" s="2">
+        <v>44196</v>
       </c>
       <c r="E123">
         <v>424</v>
@@ -4436,10 +4199,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D124" s="2">
+        <v>44926</v>
       </c>
       <c r="E124">
         <v>410</v>
@@ -4469,10 +4230,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D125" s="2">
+        <v>44926</v>
       </c>
       <c r="E125">
         <v>410</v>
@@ -4502,10 +4261,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D126" s="2">
+        <v>44561</v>
       </c>
       <c r="E126">
         <v>394</v>
@@ -4535,10 +4292,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D127" s="2">
+        <v>44561</v>
       </c>
       <c r="E127">
         <v>394</v>
@@ -4568,10 +4323,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D128" s="2">
+        <v>43465</v>
       </c>
       <c r="E128">
         <v>378</v>
@@ -4601,10 +4354,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D129" s="2">
+        <v>43465</v>
       </c>
       <c r="E129">
         <v>378</v>
@@ -4634,10 +4385,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D130" s="2">
+        <v>43830</v>
       </c>
       <c r="E130">
         <v>378</v>
@@ -4667,10 +4416,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D131" s="2">
+        <v>43830</v>
       </c>
       <c r="E131">
         <v>378</v>
@@ -4700,10 +4447,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D132" s="2">
+        <v>43465</v>
       </c>
       <c r="E132">
         <v>103</v>
@@ -4733,10 +4478,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D133" s="2">
+        <v>43465</v>
       </c>
       <c r="E133">
         <v>103</v>
@@ -4766,10 +4509,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D134" s="2">
+        <v>44926</v>
       </c>
       <c r="E134">
         <v>115</v>
@@ -4799,10 +4540,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D135" s="2">
+        <v>44926</v>
       </c>
       <c r="E135">
         <v>115</v>
@@ -4832,10 +4571,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D136" s="2">
+        <v>44561</v>
       </c>
       <c r="E136">
         <v>112</v>
@@ -4865,10 +4602,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D137" s="2">
+        <v>44561</v>
       </c>
       <c r="E137">
         <v>112</v>
@@ -4898,10 +4633,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D138" s="2">
+        <v>43465</v>
       </c>
       <c r="E138">
         <v>109</v>
@@ -4931,10 +4664,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D139" s="2">
+        <v>43465</v>
       </c>
       <c r="E139">
         <v>109</v>
@@ -4964,10 +4695,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D140" s="2">
+        <v>43830</v>
       </c>
       <c r="E140">
         <v>109</v>
@@ -4997,10 +4726,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D141" s="2">
+        <v>43830</v>
       </c>
       <c r="E141">
         <v>109</v>
@@ -5030,10 +4757,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D142" s="2">
+        <v>44196</v>
       </c>
       <c r="E142">
         <v>109</v>
@@ -5063,10 +4788,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D143" s="2">
+        <v>44196</v>
       </c>
       <c r="E143">
         <v>109</v>
@@ -5096,10 +4819,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D144" s="2">
+        <v>44196</v>
       </c>
       <c r="E144">
         <v>22</v>
@@ -5129,10 +4850,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D145" s="2">
+        <v>44196</v>
       </c>
       <c r="E145">
         <v>22</v>
@@ -5162,10 +4881,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D146" s="2">
+        <v>44561</v>
       </c>
       <c r="E146">
         <v>22</v>
@@ -5195,10 +4912,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D147" s="2">
+        <v>44561</v>
       </c>
       <c r="E147">
         <v>22</v>
@@ -5228,10 +4943,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D148" s="2">
+        <v>44926</v>
       </c>
       <c r="E148">
         <v>22</v>
@@ -5261,10 +4974,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D149" s="2">
+        <v>44926</v>
       </c>
       <c r="E149">
         <v>22</v>
@@ -5294,10 +5005,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D150" s="2">
+        <v>43465</v>
       </c>
       <c r="E150">
         <v>11</v>
@@ -5327,10 +5036,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D151" s="2">
+        <v>43465</v>
       </c>
       <c r="E151">
         <v>11</v>
@@ -5360,10 +5067,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D152" s="2">
+        <v>43830</v>
       </c>
       <c r="E152">
         <v>11</v>
@@ -5393,10 +5098,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D153" s="2">
+        <v>43830</v>
       </c>
       <c r="E153">
         <v>11</v>
@@ -5426,10 +5129,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D154" s="2">
+        <v>44196</v>
       </c>
       <c r="E154">
         <v>11</v>
@@ -5459,10 +5160,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D155" s="2">
+        <v>44196</v>
       </c>
       <c r="E155">
         <v>11</v>
@@ -5492,10 +5191,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D156" s="2">
+        <v>44561</v>
       </c>
       <c r="E156">
         <v>11</v>
@@ -5525,10 +5222,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D157" s="2">
+        <v>44561</v>
       </c>
       <c r="E157">
         <v>11</v>
@@ -5558,10 +5253,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D158" s="2">
+        <v>44926</v>
       </c>
       <c r="E158">
         <v>11</v>
@@ -5591,10 +5284,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D159" s="2">
+        <v>44926</v>
       </c>
       <c r="E159">
         <v>11</v>
@@ -5624,10 +5315,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D160" s="2">
+        <v>43465</v>
       </c>
       <c r="E160">
         <v>150</v>
@@ -5657,10 +5346,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D161" s="2">
+        <v>43465</v>
       </c>
       <c r="E161">
         <v>150</v>
@@ -5690,10 +5377,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D162" s="2">
+        <v>43830</v>
       </c>
       <c r="E162">
         <v>150</v>
@@ -5723,10 +5408,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D163" s="2">
+        <v>43830</v>
       </c>
       <c r="E163">
         <v>150</v>
@@ -5756,10 +5439,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D164" s="2">
+        <v>44196</v>
       </c>
       <c r="E164">
         <v>150</v>
@@ -5789,10 +5470,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D165" s="2">
+        <v>44196</v>
       </c>
       <c r="E165">
         <v>150</v>
@@ -5822,10 +5501,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D166" s="2">
+        <v>44561</v>
       </c>
       <c r="E166">
         <v>130</v>
@@ -5855,10 +5532,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D167" s="2">
+        <v>44561</v>
       </c>
       <c r="E167">
         <v>130</v>
@@ -5888,10 +5563,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D168" s="2">
+        <v>44926</v>
       </c>
       <c r="E168">
         <v>120</v>
@@ -5921,10 +5594,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D169" s="2">
+        <v>44926</v>
       </c>
       <c r="E169">
         <v>120</v>
@@ -5954,10 +5625,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D170" s="2">
+        <v>44926</v>
       </c>
       <c r="E170">
         <v>186</v>
@@ -5987,10 +5656,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D171" s="2">
+        <v>44926</v>
       </c>
       <c r="E171">
         <v>182</v>
@@ -6020,10 +5687,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D172" s="2">
+        <v>44561</v>
       </c>
       <c r="E172">
         <v>169</v>
@@ -6053,10 +5718,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D173" s="2">
+        <v>44561</v>
       </c>
       <c r="E173">
         <v>165</v>
@@ -6086,10 +5749,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D174" s="2">
+        <v>43830</v>
       </c>
       <c r="E174">
         <v>156</v>
@@ -6119,10 +5780,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D175" s="2">
+        <v>44196</v>
       </c>
       <c r="E175">
         <v>156</v>
@@ -6152,10 +5811,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D176" s="2">
+        <v>43465</v>
       </c>
       <c r="E176">
         <v>152</v>
@@ -6185,10 +5842,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D177" s="2">
+        <v>43830</v>
       </c>
       <c r="E177">
         <v>152</v>
@@ -6218,10 +5873,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D178" s="2">
+        <v>44196</v>
       </c>
       <c r="E178">
         <v>152</v>
@@ -6251,10 +5904,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D179" s="2">
+        <v>43465</v>
       </c>
       <c r="E179">
         <v>148</v>
@@ -6284,10 +5935,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D180" s="2">
+        <v>43465</v>
       </c>
       <c r="E180">
         <v>4</v>
@@ -6317,10 +5966,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D181" s="2">
+        <v>43830</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -6350,10 +5997,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D182" s="2">
+        <v>44196</v>
       </c>
       <c r="E182">
         <v>4</v>
@@ -6383,10 +6028,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D183" s="2">
+        <v>44561</v>
       </c>
       <c r="E183">
         <v>4</v>
@@ -6416,10 +6059,8 @@
           <t>Outras espécies</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D184" s="2">
+        <v>44926</v>
       </c>
       <c r="E184">
         <v>4</v>
@@ -6449,10 +6090,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D185" s="2">
+        <v>44926</v>
       </c>
       <c r="E185">
         <v>42</v>
@@ -6482,10 +6121,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D186" s="2">
+        <v>44926</v>
       </c>
       <c r="E186">
         <v>42</v>
@@ -6515,10 +6152,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D187" s="2">
+        <v>43465</v>
       </c>
       <c r="E187">
         <v>32</v>
@@ -6548,10 +6183,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D188" s="2">
+        <v>43465</v>
       </c>
       <c r="E188">
         <v>32</v>
@@ -6581,10 +6214,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D189" s="2">
+        <v>43830</v>
       </c>
       <c r="E189">
         <v>32</v>
@@ -6614,10 +6245,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D190" s="2">
+        <v>43830</v>
       </c>
       <c r="E190">
         <v>32</v>
@@ -6647,10 +6276,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D191" s="2">
+        <v>44196</v>
       </c>
       <c r="E191">
         <v>32</v>
@@ -6680,10 +6307,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D192" s="2">
+        <v>44196</v>
       </c>
       <c r="E192">
         <v>32</v>
@@ -6713,10 +6338,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D193" s="2">
+        <v>44561</v>
       </c>
       <c r="E193">
         <v>32</v>
@@ -6746,10 +6369,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D194" s="2">
+        <v>44561</v>
       </c>
       <c r="E194">
         <v>32</v>
@@ -6779,10 +6400,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D195" s="2">
+        <v>43830</v>
       </c>
       <c r="E195">
         <v>100</v>
@@ -6812,10 +6431,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D196" s="2">
+        <v>43830</v>
       </c>
       <c r="E196">
         <v>100</v>
@@ -6845,10 +6462,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D197" s="2">
+        <v>43465</v>
       </c>
       <c r="E197">
         <v>91</v>
@@ -6878,10 +6493,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D198" s="2">
+        <v>43465</v>
       </c>
       <c r="E198">
         <v>91</v>
@@ -6911,10 +6524,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D199" s="2">
+        <v>44196</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -6944,10 +6555,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D200" s="2">
+        <v>44196</v>
       </c>
       <c r="E200">
         <v>80</v>
@@ -6977,10 +6586,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D201" s="2">
+        <v>44561</v>
       </c>
       <c r="E201">
         <v>80</v>
@@ -7010,10 +6617,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D202" s="2">
+        <v>44561</v>
       </c>
       <c r="E202">
         <v>80</v>
@@ -7043,10 +6648,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D203" s="2">
+        <v>44926</v>
       </c>
       <c r="E203">
         <v>80</v>
@@ -7076,10 +6679,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D204" s="2">
+        <v>44926</v>
       </c>
       <c r="E204">
         <v>80</v>
@@ -7109,10 +6710,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D205" s="2">
+        <v>43465</v>
       </c>
       <c r="E205">
         <v>484</v>
@@ -7142,10 +6741,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D206" s="2">
+        <v>43465</v>
       </c>
       <c r="E206">
         <v>484</v>
@@ -7175,10 +6772,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D207" s="2">
+        <v>43830</v>
       </c>
       <c r="E207">
         <v>455</v>
@@ -7208,10 +6803,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D208" s="2">
+        <v>43830</v>
       </c>
       <c r="E208">
         <v>455</v>
@@ -7241,10 +6834,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D209" s="2">
+        <v>44196</v>
       </c>
       <c r="E209">
         <v>450</v>
@@ -7274,10 +6865,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D210" s="2">
+        <v>44196</v>
       </c>
       <c r="E210">
         <v>450</v>
@@ -7307,10 +6896,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D211" s="2">
+        <v>44561</v>
       </c>
       <c r="E211">
         <v>450</v>
@@ -7340,10 +6927,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D212" s="2">
+        <v>44561</v>
       </c>
       <c r="E212">
         <v>450</v>
@@ -7373,10 +6958,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D213" s="2">
+        <v>44926</v>
       </c>
       <c r="E213">
         <v>450</v>
@@ -7406,10 +6989,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D214" s="2">
+        <v>44926</v>
       </c>
       <c r="E214">
         <v>450</v>
@@ -7439,10 +7020,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D215" s="2">
+        <v>43830</v>
       </c>
       <c r="E215">
         <v>15</v>
@@ -7472,10 +7051,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D216" s="2">
+        <v>43830</v>
       </c>
       <c r="E216">
         <v>15</v>
@@ -7505,10 +7082,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D217" s="2">
+        <v>43465</v>
       </c>
       <c r="E217">
         <v>13</v>
@@ -7538,10 +7113,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D218" s="2">
+        <v>43465</v>
       </c>
       <c r="E218">
         <v>13</v>
@@ -7571,10 +7144,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D219" s="2">
+        <v>44561</v>
       </c>
       <c r="E219">
         <v>11</v>
@@ -7585,7 +7156,7 @@
         </is>
       </c>
       <c r="G219">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
@@ -7604,10 +7175,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D220" s="2">
+        <v>44561</v>
       </c>
       <c r="E220">
         <v>11</v>
@@ -7618,7 +7187,7 @@
         </is>
       </c>
       <c r="G220">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221">
@@ -7637,10 +7206,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D221" s="2">
+        <v>44926</v>
       </c>
       <c r="E221">
         <v>11</v>
@@ -7651,7 +7218,7 @@
         </is>
       </c>
       <c r="G221">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222">
@@ -7670,10 +7237,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D222" s="2">
+        <v>44926</v>
       </c>
       <c r="E222">
         <v>11</v>
@@ -7684,7 +7249,7 @@
         </is>
       </c>
       <c r="G222">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223">
@@ -7703,10 +7268,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D223" s="2">
+        <v>44196</v>
       </c>
       <c r="E223">
         <v>8</v>
@@ -7736,10 +7299,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D224" s="2">
+        <v>44196</v>
       </c>
       <c r="E224">
         <v>8</v>
@@ -7769,10 +7330,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D225" s="2">
+        <v>44926</v>
       </c>
       <c r="E225">
         <v>38</v>
@@ -7802,10 +7361,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D226" s="2">
+        <v>44926</v>
       </c>
       <c r="E226">
         <v>38</v>
@@ -7835,10 +7392,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D227" s="2">
+        <v>43830</v>
       </c>
       <c r="E227">
         <v>35</v>
@@ -7868,10 +7423,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="D228" s="2">
+        <v>43830</v>
       </c>
       <c r="E228">
         <v>35</v>
@@ -7901,10 +7454,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D229" s="2">
+        <v>44561</v>
       </c>
       <c r="E229">
         <v>34</v>
@@ -7934,10 +7485,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D230" s="2">
+        <v>44561</v>
       </c>
       <c r="E230">
         <v>34</v>
@@ -7967,10 +7516,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D231" s="2">
+        <v>43465</v>
       </c>
       <c r="E231">
         <v>32</v>
@@ -7981,7 +7528,7 @@
         </is>
       </c>
       <c r="G231">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232">
@@ -8000,10 +7547,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="D232" s="2">
+        <v>43465</v>
       </c>
       <c r="E232">
         <v>32</v>
@@ -8014,7 +7559,7 @@
         </is>
       </c>
       <c r="G232">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
@@ -8033,10 +7578,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D233" s="2">
+        <v>44196</v>
       </c>
       <c r="E233">
         <v>31</v>
@@ -8066,10 +7609,8 @@
           <t>Eucalipto</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D234" s="2">
+        <v>44196</v>
       </c>
       <c r="E234">
         <v>31</v>

--- a/Municípios/Data/PEVS_area.xlsx
+++ b/Municípios/Data/PEVS_area.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -55,12 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,14 +351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -372,32 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Variável</t>
+          <t>Espécie florestal</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Espécie florestal</t>
+          <t>Ano</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ano</t>
+          <t>Área total da silvicultura</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unidade de Medida</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Colocação</t>
+          <t>Ranking</t>
         </is>
       </c>
     </row>
@@ -409,26 +392,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D2" s="2">
-        <v>44561</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G2">
         <v>20</v>
       </c>
     </row>
@@ -440,27 +415,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D3" s="2">
-        <v>44926</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -471,27 +438,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D4" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -502,26 +461,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D5" s="2">
-        <v>44196</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G5">
         <v>20</v>
       </c>
     </row>
@@ -533,26 +484,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D6" s="2">
-        <v>44561</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G6">
         <v>20</v>
       </c>
     </row>
@@ -564,27 +507,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D7" s="2">
-        <v>44926</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G7">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -595,27 +530,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D8" s="2">
-        <v>43465</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G8">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -626,27 +553,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D9" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G9">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -657,27 +576,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D10" s="2">
-        <v>44196</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G10">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -688,27 +599,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D11" s="2">
-        <v>43465</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -719,27 +622,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D12" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G12">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -750,27 +645,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D13" s="2">
-        <v>43830</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G13">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -781,27 +668,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D14" s="2">
-        <v>44196</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G14">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -812,27 +691,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D15" s="2">
-        <v>44561</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G15">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -843,27 +714,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D16" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -874,26 +737,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D17" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G17">
         <v>22</v>
       </c>
     </row>
@@ -905,27 +760,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D18" s="2">
-        <v>43465</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G18">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -936,27 +783,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D19" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G19">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -967,27 +806,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D20" s="2">
-        <v>43830</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G20">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -998,27 +829,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D21" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G21">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -1029,26 +852,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D22" s="2">
-        <v>44196</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G22">
         <v>22</v>
       </c>
     </row>
@@ -1060,27 +875,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D23" s="2">
-        <v>44561</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G23">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1091,26 +898,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D24" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G24">
         <v>22</v>
       </c>
     </row>
@@ -1122,27 +921,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D25" s="2">
-        <v>44926</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G25">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1153,26 +944,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D26" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G26">
         <v>21</v>
       </c>
     </row>
@@ -1184,27 +967,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D27" s="2">
-        <v>44926</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>270</v>
       </c>
       <c r="E27">
-        <v>664</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G27">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1215,27 +990,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D28" s="2">
-        <v>44926</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>260</v>
       </c>
       <c r="E28">
-        <v>664</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G28">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1246,27 +1013,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D29" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>255</v>
       </c>
       <c r="E29">
-        <v>646</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1277,26 +1036,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D30" s="2">
-        <v>44561</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>646</v>
       </c>
       <c r="E30">
-        <v>646</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G30">
         <v>2</v>
       </c>
     </row>
@@ -1308,27 +1059,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D31" s="2">
-        <v>43465</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>664</v>
       </c>
       <c r="E31">
-        <v>270</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G31">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1339,26 +1082,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D32" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>270</v>
       </c>
       <c r="E32">
-        <v>270</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G32">
         <v>5</v>
       </c>
     </row>
@@ -1370,26 +1105,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D33" s="2">
-        <v>43830</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>260</v>
       </c>
       <c r="E33">
-        <v>260</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G33">
         <v>6</v>
       </c>
     </row>
@@ -1401,27 +1128,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D34" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>255</v>
       </c>
       <c r="E34">
-        <v>260</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1432,27 +1151,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D35" s="2">
-        <v>44196</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>646</v>
       </c>
       <c r="E35">
-        <v>255</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G35">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1463,27 +1174,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D36" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>664</v>
       </c>
       <c r="E36">
-        <v>255</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G36">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1494,27 +1197,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D37" s="2">
-        <v>44926</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>632</v>
       </c>
       <c r="E37">
-        <v>660</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1525,27 +1220,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D38" s="2">
-        <v>44926</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>650</v>
       </c>
       <c r="E38">
-        <v>660</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1556,26 +1243,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D39" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>598</v>
       </c>
       <c r="E39">
-        <v>650</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G39">
         <v>2</v>
       </c>
     </row>
@@ -1587,27 +1266,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D40" s="2">
-        <v>43830</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>615</v>
       </c>
       <c r="E40">
-        <v>650</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1618,27 +1289,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D41" s="2">
-        <v>43465</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>660</v>
       </c>
       <c r="E41">
-        <v>632</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1649,26 +1312,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D42" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>632</v>
       </c>
       <c r="E42">
-        <v>632</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G42">
         <v>2</v>
       </c>
     </row>
@@ -1680,27 +1335,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D43" s="2">
-        <v>44561</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>650</v>
       </c>
       <c r="E43">
-        <v>615</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1711,27 +1358,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D44" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>598</v>
       </c>
       <c r="E44">
-        <v>615</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1742,27 +1381,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D45" s="2">
-        <v>44196</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>615</v>
       </c>
       <c r="E45">
-        <v>598</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1773,27 +1404,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D46" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>660</v>
       </c>
       <c r="E46">
-        <v>598</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1804,27 +1427,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D47" s="2">
-        <v>43830</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>251</v>
       </c>
       <c r="E47">
-        <v>275</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G47">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -1835,26 +1450,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D48" s="2">
-        <v>43830</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>275</v>
       </c>
       <c r="E48">
-        <v>275</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G48">
         <v>5</v>
       </c>
     </row>
@@ -1866,26 +1473,18 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D49" s="2">
-        <v>44926</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>220</v>
       </c>
       <c r="E49">
-        <v>265</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G49">
         <v>6</v>
       </c>
     </row>
@@ -1897,26 +1496,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D50" s="2">
-        <v>44926</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>248</v>
       </c>
       <c r="E50">
-        <v>265</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G50">
         <v>6</v>
       </c>
     </row>
@@ -1928,26 +1519,18 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D51" s="2">
-        <v>43465</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>265</v>
       </c>
       <c r="E51">
-        <v>251</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G51">
         <v>6</v>
       </c>
     </row>
@@ -1959,26 +1542,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D52" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>251</v>
       </c>
       <c r="E52">
-        <v>251</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G52">
         <v>6</v>
       </c>
     </row>
@@ -1990,27 +1565,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D53" s="2">
-        <v>44561</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>275</v>
       </c>
       <c r="E53">
-        <v>248</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G53">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2021,26 +1588,18 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D54" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>220</v>
       </c>
       <c r="E54">
-        <v>248</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G54">
         <v>6</v>
       </c>
     </row>
@@ -2052,26 +1611,18 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D55" s="2">
-        <v>44196</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>248</v>
       </c>
       <c r="E55">
-        <v>220</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G55">
         <v>6</v>
       </c>
     </row>
@@ -2083,26 +1634,18 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D56" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>265</v>
       </c>
       <c r="E56">
-        <v>220</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G56">
         <v>6</v>
       </c>
     </row>
@@ -2114,27 +1657,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D57" s="2">
-        <v>44926</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>14</v>
       </c>
       <c r="E57">
-        <v>32</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G57">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -2145,27 +1680,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D58" s="2">
-        <v>44926</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>14</v>
       </c>
       <c r="E58">
-        <v>32</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G58">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -2176,26 +1703,18 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D59" s="2">
-        <v>43465</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>14</v>
       </c>
       <c r="E59">
-        <v>14</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G59">
         <v>17</v>
       </c>
     </row>
@@ -2207,26 +1726,18 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D60" s="2">
-        <v>43465</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>14</v>
       </c>
       <c r="E60">
-        <v>14</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G60">
         <v>17</v>
       </c>
     </row>
@@ -2238,27 +1749,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D61" s="2">
-        <v>43830</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>32</v>
       </c>
       <c r="E61">
-        <v>14</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G61">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -2269,26 +1772,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D62" s="2">
-        <v>43830</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>14</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G62">
         <v>17</v>
       </c>
     </row>
@@ -2300,26 +1795,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D63" s="2">
-        <v>44196</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>14</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G63">
         <v>17</v>
       </c>
     </row>
@@ -2331,26 +1818,18 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D64" s="2">
-        <v>44196</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>14</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G64">
         <v>17</v>
       </c>
     </row>
@@ -2362,26 +1841,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D65" s="2">
-        <v>44561</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>14</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G65">
         <v>17</v>
       </c>
     </row>
@@ -2393,27 +1864,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D66" s="2">
-        <v>44561</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>32</v>
       </c>
       <c r="E66">
-        <v>14</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G66">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -2424,27 +1887,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D67" s="2">
-        <v>43830</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>88</v>
       </c>
       <c r="E67">
-        <v>96</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G67">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -2455,26 +1910,18 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D68" s="2">
-        <v>43830</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>96</v>
       </c>
       <c r="E68">
-        <v>96</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G68">
         <v>13</v>
       </c>
     </row>
@@ -2486,26 +1933,18 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D69" s="2">
-        <v>44926</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>84</v>
       </c>
       <c r="E69">
-        <v>94</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G69">
         <v>12</v>
       </c>
     </row>
@@ -2517,26 +1956,18 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D70" s="2">
-        <v>44926</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>88</v>
       </c>
       <c r="E70">
-        <v>94</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G70">
         <v>12</v>
       </c>
     </row>
@@ -2548,27 +1979,19 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D71" s="2">
-        <v>43465</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>94</v>
       </c>
       <c r="E71">
-        <v>88</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G71">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -2579,26 +2002,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D72" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>88</v>
       </c>
       <c r="E72">
-        <v>88</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G72">
         <v>14</v>
       </c>
     </row>
@@ -2610,27 +2025,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D73" s="2">
-        <v>44561</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>96</v>
       </c>
       <c r="E73">
-        <v>88</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G73">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -2641,26 +2048,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D74" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>84</v>
       </c>
       <c r="E74">
-        <v>88</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G74">
         <v>12</v>
       </c>
     </row>
@@ -2672,26 +2071,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D75" s="2">
-        <v>44196</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>88</v>
       </c>
       <c r="E75">
-        <v>84</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G75">
         <v>12</v>
       </c>
     </row>
@@ -2703,26 +2094,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D76" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>94</v>
       </c>
       <c r="E76">
-        <v>84</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G76">
         <v>12</v>
       </c>
     </row>
@@ -2734,26 +2117,18 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D77" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>3013</v>
       </c>
       <c r="E77">
-        <v>3033</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G77">
         <v>1</v>
       </c>
     </row>
@@ -2765,26 +2140,18 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D78" s="2">
-        <v>43465</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>2870</v>
       </c>
       <c r="E78">
-        <v>3013</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G78">
         <v>1</v>
       </c>
     </row>
@@ -2796,26 +2163,18 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D79" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>2837</v>
       </c>
       <c r="E79">
-        <v>2890</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G79">
         <v>1</v>
       </c>
     </row>
@@ -2827,26 +2186,18 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D80" s="2">
-        <v>43830</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>2713</v>
       </c>
       <c r="E80">
-        <v>2870</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G80">
         <v>1</v>
       </c>
     </row>
@@ -2858,26 +2209,18 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D81" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>2578</v>
       </c>
       <c r="E81">
-        <v>2856</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G81">
         <v>1</v>
       </c>
     </row>
@@ -2889,26 +2232,18 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D82" s="2">
-        <v>44196</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>20</v>
       </c>
       <c r="E82">
-        <v>2837</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G82">
         <v>1</v>
       </c>
     </row>
@@ -2920,26 +2255,18 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D83" s="2">
-        <v>44561</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>2731</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G83">
         <v>1</v>
       </c>
     </row>
@@ -2951,26 +2278,18 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D84" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>19</v>
       </c>
       <c r="E84">
-        <v>2713</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G84">
         <v>1</v>
       </c>
     </row>
@@ -2982,26 +2301,18 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D85" s="2">
-        <v>44926</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>18</v>
       </c>
       <c r="E85">
-        <v>2588</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G85">
         <v>1</v>
       </c>
     </row>
@@ -3013,26 +2324,18 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D86" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>10</v>
       </c>
       <c r="E86">
-        <v>2578</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G86">
         <v>1</v>
       </c>
     </row>
@@ -3044,26 +2347,18 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D87" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>3033</v>
       </c>
       <c r="E87">
-        <v>20</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G87">
         <v>1</v>
       </c>
     </row>
@@ -3075,26 +2370,18 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D88" s="2">
-        <v>43830</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>2890</v>
       </c>
       <c r="E88">
-        <v>20</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G88">
         <v>1</v>
       </c>
     </row>
@@ -3106,26 +2393,18 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D89" s="2">
-        <v>44196</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>2856</v>
       </c>
       <c r="E89">
-        <v>19</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G89">
         <v>1</v>
       </c>
     </row>
@@ -3137,26 +2416,18 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D90" s="2">
-        <v>44561</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>2731</v>
       </c>
       <c r="E90">
-        <v>18</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G90">
         <v>1</v>
       </c>
     </row>
@@ -3168,26 +2439,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D91" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>2588</v>
       </c>
       <c r="E91">
-        <v>10</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G91">
         <v>1</v>
       </c>
     </row>
@@ -3199,26 +2462,18 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D92" s="2">
-        <v>43830</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>193</v>
       </c>
       <c r="E92">
-        <v>246</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G92">
         <v>7</v>
       </c>
     </row>
@@ -3230,26 +2485,18 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D93" s="2">
-        <v>43830</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>246</v>
       </c>
       <c r="E93">
-        <v>246</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G93">
         <v>7</v>
       </c>
     </row>
@@ -3261,26 +2508,18 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D94" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>206</v>
       </c>
       <c r="E94">
-        <v>244</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G94">
         <v>7</v>
       </c>
     </row>
@@ -3292,26 +2531,18 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D95" s="2">
-        <v>44561</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>244</v>
       </c>
       <c r="E95">
-        <v>244</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G95">
         <v>7</v>
       </c>
     </row>
@@ -3323,26 +2554,18 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D96" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>244</v>
       </c>
       <c r="E96">
-        <v>244</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G96">
         <v>7</v>
       </c>
     </row>
@@ -3354,26 +2577,18 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D97" s="2">
-        <v>44926</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>193</v>
       </c>
       <c r="E97">
-        <v>244</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G97">
         <v>7</v>
       </c>
     </row>
@@ -3385,26 +2600,18 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D98" s="2">
-        <v>44196</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>246</v>
       </c>
       <c r="E98">
-        <v>206</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G98">
         <v>7</v>
       </c>
     </row>
@@ -3416,26 +2623,18 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D99" s="2">
-        <v>44196</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>206</v>
       </c>
       <c r="E99">
-        <v>206</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G99">
         <v>7</v>
       </c>
     </row>
@@ -3447,26 +2646,18 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D100" s="2">
-        <v>43465</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>244</v>
       </c>
       <c r="E100">
-        <v>193</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G100">
         <v>7</v>
       </c>
     </row>
@@ -3478,26 +2669,18 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D101" s="2">
-        <v>43465</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>244</v>
       </c>
       <c r="E101">
-        <v>193</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G101">
         <v>7</v>
       </c>
     </row>
@@ -3509,27 +2692,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D102" s="2">
-        <v>44926</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>132</v>
       </c>
       <c r="E102">
-        <v>142</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G102">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -3540,27 +2715,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D103" s="2">
-        <v>44926</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>140</v>
       </c>
       <c r="E103">
-        <v>142</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G103">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -3571,26 +2738,18 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D104" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>140</v>
       </c>
       <c r="E104">
-        <v>140</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G104">
         <v>10</v>
       </c>
     </row>
@@ -3602,27 +2761,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D105" s="2">
-        <v>43830</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>140</v>
       </c>
       <c r="E105">
-        <v>140</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G105">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
@@ -3633,27 +2784,19 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D106" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>142</v>
       </c>
       <c r="E106">
-        <v>140</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G106">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
@@ -3664,26 +2807,18 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D107" s="2">
-        <v>44196</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>132</v>
       </c>
       <c r="E107">
-        <v>140</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G107">
         <v>10</v>
       </c>
     </row>
@@ -3695,27 +2830,19 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D108" s="2">
-        <v>44561</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>140</v>
       </c>
       <c r="E108">
-        <v>140</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G108">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -3726,27 +2853,19 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D109" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>140</v>
       </c>
       <c r="E109">
-        <v>140</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G109">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -3757,27 +2876,19 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D110" s="2">
-        <v>43465</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>140</v>
       </c>
       <c r="E110">
-        <v>132</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G110">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
@@ -3788,27 +2899,19 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D111" s="2">
-        <v>43465</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>142</v>
       </c>
       <c r="E111">
-        <v>132</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G111">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112">
@@ -3819,26 +2922,18 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D112" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>3</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G112">
         <v>21</v>
       </c>
     </row>
@@ -3850,27 +2945,19 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D113" s="2">
-        <v>43465</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>3</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G113">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
@@ -3881,27 +2968,19 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D114" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>3</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G114">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
@@ -3912,27 +2991,19 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D115" s="2">
-        <v>43830</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>3</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G115">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
@@ -3943,26 +3014,18 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D116" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>3</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G116">
         <v>21</v>
       </c>
     </row>
@@ -3974,26 +3037,18 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D117" s="2">
-        <v>44196</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>3</v>
       </c>
       <c r="E117">
-        <v>3</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G117">
         <v>21</v>
       </c>
     </row>
@@ -4005,27 +3060,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D118" s="2">
-        <v>44561</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>3</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G118">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
@@ -4036,26 +3083,18 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D119" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>3</v>
       </c>
       <c r="E119">
-        <v>3</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G119">
         <v>21</v>
       </c>
     </row>
@@ -4067,26 +3106,18 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D120" s="2">
-        <v>44926</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>3</v>
       </c>
       <c r="E120">
-        <v>2</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G120">
         <v>21</v>
       </c>
     </row>
@@ -4098,26 +3129,18 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D121" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>2</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G121">
         <v>21</v>
       </c>
     </row>
@@ -4129,26 +3152,18 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D122" s="2">
-        <v>44196</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>378</v>
       </c>
       <c r="E122">
-        <v>424</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G122">
         <v>4</v>
       </c>
     </row>
@@ -4160,26 +3175,18 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D123" s="2">
-        <v>44196</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>378</v>
       </c>
       <c r="E123">
-        <v>424</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G123">
         <v>4</v>
       </c>
     </row>
@@ -4191,27 +3198,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D124" s="2">
-        <v>44926</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>424</v>
       </c>
       <c r="E124">
-        <v>410</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G124">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -4222,26 +3221,18 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D125" s="2">
-        <v>44926</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>394</v>
       </c>
       <c r="E125">
-        <v>410</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G125">
         <v>5</v>
       </c>
     </row>
@@ -4253,26 +3244,18 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D126" s="2">
-        <v>44561</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>410</v>
       </c>
       <c r="E126">
-        <v>394</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G126">
         <v>5</v>
       </c>
     </row>
@@ -4284,27 +3267,19 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D127" s="2">
-        <v>44561</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>378</v>
       </c>
       <c r="E127">
-        <v>394</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G127">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -4315,26 +3290,18 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D128" s="2">
-        <v>43465</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D128">
+        <v>378</v>
       </c>
       <c r="E128">
-        <v>378</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G128">
         <v>4</v>
       </c>
     </row>
@@ -4346,26 +3313,18 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D129" s="2">
-        <v>43465</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D129">
+        <v>424</v>
       </c>
       <c r="E129">
-        <v>378</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G129">
         <v>4</v>
       </c>
     </row>
@@ -4377,27 +3336,19 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D130" s="2">
-        <v>43830</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D130">
+        <v>394</v>
       </c>
       <c r="E130">
-        <v>378</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G130">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
@@ -4408,27 +3359,19 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D131" s="2">
-        <v>43830</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D131">
+        <v>410</v>
       </c>
       <c r="E131">
-        <v>378</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G131">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
@@ -4439,26 +3382,18 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D132" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D132">
+        <v>103</v>
       </c>
       <c r="E132">
-        <v>103</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G132">
         <v>12</v>
       </c>
     </row>
@@ -4470,26 +3405,18 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D133" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D133">
+        <v>103</v>
       </c>
       <c r="E133">
-        <v>103</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G133">
         <v>12</v>
       </c>
     </row>
@@ -4501,26 +3428,18 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D134" s="2">
-        <v>44926</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D134">
+        <v>109</v>
       </c>
       <c r="E134">
-        <v>115</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G134">
         <v>11</v>
       </c>
     </row>
@@ -4532,26 +3451,18 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D135" s="2">
-        <v>44926</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D135">
+        <v>109</v>
       </c>
       <c r="E135">
-        <v>115</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G135">
         <v>11</v>
       </c>
     </row>
@@ -4563,26 +3474,18 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D136" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D136">
+        <v>109</v>
       </c>
       <c r="E136">
-        <v>112</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G136">
         <v>11</v>
       </c>
     </row>
@@ -4594,26 +3497,18 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D137" s="2">
-        <v>44561</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D137">
+        <v>112</v>
       </c>
       <c r="E137">
-        <v>112</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G137">
         <v>11</v>
       </c>
     </row>
@@ -4625,26 +3520,18 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D138" s="2">
-        <v>43465</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D138">
+        <v>115</v>
       </c>
       <c r="E138">
-        <v>109</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G138">
         <v>11</v>
       </c>
     </row>
@@ -4656,26 +3543,18 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D139" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D139">
+        <v>109</v>
       </c>
       <c r="E139">
-        <v>109</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G139">
         <v>11</v>
       </c>
     </row>
@@ -4687,26 +3566,18 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D140" s="2">
-        <v>43830</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D140">
+        <v>109</v>
       </c>
       <c r="E140">
-        <v>109</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G140">
         <v>11</v>
       </c>
     </row>
@@ -4718,26 +3589,18 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D141" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D141">
+        <v>109</v>
       </c>
       <c r="E141">
-        <v>109</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G141">
         <v>11</v>
       </c>
     </row>
@@ -4749,26 +3612,18 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D142" s="2">
-        <v>44196</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D142">
+        <v>112</v>
       </c>
       <c r="E142">
-        <v>109</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G142">
         <v>11</v>
       </c>
     </row>
@@ -4780,26 +3635,18 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D143" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D143">
+        <v>115</v>
       </c>
       <c r="E143">
-        <v>109</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G143">
         <v>11</v>
       </c>
     </row>
@@ -4811,26 +3658,18 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D144" s="2">
-        <v>44196</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D144">
+        <v>22</v>
       </c>
       <c r="E144">
-        <v>22</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G144">
         <v>16</v>
       </c>
     </row>
@@ -4842,26 +3681,18 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D145" s="2">
-        <v>44196</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D145">
+        <v>22</v>
       </c>
       <c r="E145">
-        <v>22</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G145">
         <v>16</v>
       </c>
     </row>
@@ -4873,27 +3704,19 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D146" s="2">
-        <v>44561</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D146">
+        <v>22</v>
       </c>
       <c r="E146">
-        <v>22</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G146">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147">
@@ -4904,26 +3727,18 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D147" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D147">
+        <v>22</v>
       </c>
       <c r="E147">
-        <v>22</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G147">
         <v>16</v>
       </c>
     </row>
@@ -4935,27 +3750,19 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D148" s="2">
-        <v>44926</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D148">
+        <v>22</v>
       </c>
       <c r="E148">
-        <v>22</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G148">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
@@ -4966,26 +3773,18 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D149" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D149">
+        <v>22</v>
       </c>
       <c r="E149">
-        <v>22</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G149">
         <v>17</v>
       </c>
     </row>
@@ -4997,26 +3796,18 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D150" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D150">
+        <v>11</v>
       </c>
       <c r="E150">
-        <v>11</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G150">
         <v>19</v>
       </c>
     </row>
@@ -5028,27 +3819,19 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D151" s="2">
-        <v>43465</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D151">
+        <v>11</v>
       </c>
       <c r="E151">
-        <v>11</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G151">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
@@ -5059,26 +3842,18 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D152" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D152">
+        <v>11</v>
       </c>
       <c r="E152">
-        <v>11</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G152">
         <v>18</v>
       </c>
     </row>
@@ -5090,26 +3865,18 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D153" s="2">
-        <v>43830</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D153">
+        <v>11</v>
       </c>
       <c r="E153">
-        <v>11</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G153">
         <v>18</v>
       </c>
     </row>
@@ -5121,26 +3888,18 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D154" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D154">
+        <v>11</v>
       </c>
       <c r="E154">
-        <v>11</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G154">
         <v>18</v>
       </c>
     </row>
@@ -5152,27 +3911,19 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D155" s="2">
-        <v>44196</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D155">
+        <v>11</v>
       </c>
       <c r="E155">
-        <v>11</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G155">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156">
@@ -5183,26 +3934,18 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D156" s="2">
-        <v>44561</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D156">
+        <v>11</v>
       </c>
       <c r="E156">
-        <v>11</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G156">
         <v>18</v>
       </c>
     </row>
@@ -5214,26 +3957,18 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D157" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D157">
+        <v>11</v>
       </c>
       <c r="E157">
-        <v>11</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G157">
         <v>18</v>
       </c>
     </row>
@@ -5245,26 +3980,18 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D158" s="2">
-        <v>44926</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D158">
+        <v>11</v>
       </c>
       <c r="E158">
-        <v>11</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G158">
         <v>18</v>
       </c>
     </row>
@@ -5276,26 +4003,18 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D159" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D159">
+        <v>11</v>
       </c>
       <c r="E159">
-        <v>11</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G159">
         <v>18</v>
       </c>
     </row>
@@ -5307,27 +4026,19 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D160" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D160">
+        <v>150</v>
       </c>
       <c r="E160">
-        <v>150</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G160">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -5338,27 +4049,19 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D161" s="2">
-        <v>43465</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D161">
+        <v>150</v>
       </c>
       <c r="E161">
-        <v>150</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G161">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
@@ -5369,26 +4072,18 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D162" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D162">
+        <v>150</v>
       </c>
       <c r="E162">
-        <v>150</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G162">
         <v>9</v>
       </c>
     </row>
@@ -5400,27 +4095,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D163" s="2">
-        <v>43830</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D163">
+        <v>130</v>
       </c>
       <c r="E163">
-        <v>150</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G163">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
@@ -5431,27 +4118,19 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D164" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D164">
+        <v>120</v>
       </c>
       <c r="E164">
-        <v>150</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G164">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -5462,26 +4141,18 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D165" s="2">
-        <v>44196</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D165">
+        <v>150</v>
       </c>
       <c r="E165">
-        <v>150</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G165">
         <v>9</v>
       </c>
     </row>
@@ -5493,27 +4164,19 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D166" s="2">
-        <v>44561</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D166">
+        <v>150</v>
       </c>
       <c r="E166">
-        <v>130</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G166">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167">
@@ -5524,27 +4187,19 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D167" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D167">
+        <v>150</v>
       </c>
       <c r="E167">
-        <v>130</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G167">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
@@ -5555,26 +4210,18 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D168" s="2">
-        <v>44926</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D168">
+        <v>130</v>
       </c>
       <c r="E168">
-        <v>120</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G168">
         <v>10</v>
       </c>
     </row>
@@ -5586,26 +4233,18 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D169" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D169">
+        <v>120</v>
       </c>
       <c r="E169">
-        <v>120</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G169">
         <v>10</v>
       </c>
     </row>
@@ -5617,27 +4256,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D170" s="2">
-        <v>44926</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D170">
+        <v>148</v>
       </c>
       <c r="E170">
-        <v>186</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G170">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
@@ -5648,26 +4279,18 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D171" s="2">
-        <v>44926</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D171">
+        <v>152</v>
       </c>
       <c r="E171">
-        <v>182</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G171">
         <v>8</v>
       </c>
     </row>
@@ -5679,26 +4302,18 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D172" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D172">
+        <v>152</v>
       </c>
       <c r="E172">
-        <v>169</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G172">
         <v>8</v>
       </c>
     </row>
@@ -5710,26 +4325,18 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D173" s="2">
-        <v>44561</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D173">
+        <v>165</v>
       </c>
       <c r="E173">
-        <v>165</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G173">
         <v>8</v>
       </c>
     </row>
@@ -5741,26 +4348,18 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D174" s="2">
-        <v>43830</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D174">
+        <v>182</v>
       </c>
       <c r="E174">
-        <v>156</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G174">
         <v>8</v>
       </c>
     </row>
@@ -5772,27 +4371,19 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D175" s="2">
-        <v>44196</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D175">
+        <v>4</v>
       </c>
       <c r="E175">
-        <v>156</v>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G175">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -5803,27 +4394,19 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D176" s="2">
-        <v>43465</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D176">
+        <v>4</v>
       </c>
       <c r="E176">
-        <v>152</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G176">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -5834,27 +4417,19 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D177" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D177">
+        <v>4</v>
       </c>
       <c r="E177">
-        <v>152</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G177">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -5865,27 +4440,19 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D178" s="2">
-        <v>44196</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D178">
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>152</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G178">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -5896,27 +4463,19 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D179" s="2">
-        <v>43465</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D179">
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>148</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G179">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -5927,27 +4486,19 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D180" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D180">
+        <v>152</v>
       </c>
       <c r="E180">
-        <v>4</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G180">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181">
@@ -5958,27 +4509,19 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D181" s="2">
-        <v>43830</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D181">
+        <v>156</v>
       </c>
       <c r="E181">
-        <v>4</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G181">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182">
@@ -5989,27 +4532,19 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D182" s="2">
-        <v>44196</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D182">
+        <v>156</v>
       </c>
       <c r="E182">
-        <v>4</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G182">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183">
@@ -6020,27 +4555,19 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D183" s="2">
-        <v>44561</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D183">
+        <v>169</v>
       </c>
       <c r="E183">
-        <v>4</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G183">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
@@ -6051,27 +4578,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
-        </is>
-      </c>
-      <c r="D184" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D184">
+        <v>186</v>
       </c>
       <c r="E184">
-        <v>4</v>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G184">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
@@ -6082,27 +4601,19 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D185" s="2">
-        <v>44926</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D185">
+        <v>32</v>
       </c>
       <c r="E185">
-        <v>42</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G185">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186">
@@ -6113,27 +4624,19 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D186" s="2">
-        <v>44926</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D186">
+        <v>32</v>
       </c>
       <c r="E186">
-        <v>42</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G186">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187">
@@ -6144,27 +4647,19 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D187" s="2">
-        <v>43465</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D187">
+        <v>32</v>
       </c>
       <c r="E187">
-        <v>32</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G187">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
@@ -6175,26 +4670,18 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D188" s="2">
-        <v>43465</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D188">
+        <v>32</v>
       </c>
       <c r="E188">
-        <v>32</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G188">
         <v>15</v>
       </c>
     </row>
@@ -6206,27 +4693,19 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D189" s="2">
-        <v>43830</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D189">
+        <v>42</v>
       </c>
       <c r="E189">
-        <v>32</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G189">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
@@ -6237,26 +4716,18 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D190" s="2">
-        <v>43830</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D190">
+        <v>32</v>
       </c>
       <c r="E190">
-        <v>32</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G190">
         <v>15</v>
       </c>
     </row>
@@ -6268,27 +4739,19 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D191" s="2">
-        <v>44196</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D191">
+        <v>32</v>
       </c>
       <c r="E191">
-        <v>32</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G191">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192">
@@ -6299,26 +4762,18 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D192" s="2">
-        <v>44196</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D192">
+        <v>32</v>
       </c>
       <c r="E192">
-        <v>32</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G192">
         <v>14</v>
       </c>
     </row>
@@ -6330,26 +4785,18 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D193" s="2">
-        <v>44561</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D193">
+        <v>32</v>
       </c>
       <c r="E193">
-        <v>32</v>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G193">
         <v>15</v>
       </c>
     </row>
@@ -6361,27 +4808,19 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D194" s="2">
-        <v>44561</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D194">
+        <v>42</v>
       </c>
       <c r="E194">
-        <v>32</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G194">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195">
@@ -6392,27 +4831,19 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D195" s="2">
-        <v>43830</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D195">
+        <v>91</v>
       </c>
       <c r="E195">
-        <v>100</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G195">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196">
@@ -6423,26 +4854,18 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D196" s="2">
-        <v>43830</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D196">
+        <v>100</v>
       </c>
       <c r="E196">
-        <v>100</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G196">
         <v>12</v>
       </c>
     </row>
@@ -6454,26 +4877,18 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D197" s="2">
-        <v>43465</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D197">
+        <v>80</v>
       </c>
       <c r="E197">
-        <v>91</v>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G197">
         <v>13</v>
       </c>
     </row>
@@ -6485,26 +4900,18 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D198" s="2">
-        <v>43465</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D198">
+        <v>80</v>
       </c>
       <c r="E198">
-        <v>91</v>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G198">
         <v>13</v>
       </c>
     </row>
@@ -6516,26 +4923,18 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D199" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D199">
+        <v>80</v>
       </c>
       <c r="E199">
-        <v>80</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G199">
         <v>13</v>
       </c>
     </row>
@@ -6547,26 +4946,18 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D200" s="2">
-        <v>44196</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D200">
+        <v>91</v>
       </c>
       <c r="E200">
-        <v>80</v>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G200">
         <v>13</v>
       </c>
     </row>
@@ -6578,27 +4969,19 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D201" s="2">
-        <v>44561</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D201">
+        <v>100</v>
       </c>
       <c r="E201">
-        <v>80</v>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G201">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202">
@@ -6609,26 +4992,18 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D202" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D202">
+        <v>80</v>
       </c>
       <c r="E202">
-        <v>80</v>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G202">
         <v>13</v>
       </c>
     </row>
@@ -6640,26 +5015,18 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D203" s="2">
-        <v>44926</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D203">
+        <v>80</v>
       </c>
       <c r="E203">
-        <v>80</v>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G203">
         <v>13</v>
       </c>
     </row>
@@ -6671,26 +5038,18 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D204" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D204">
+        <v>80</v>
       </c>
       <c r="E204">
-        <v>80</v>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G204">
         <v>13</v>
       </c>
     </row>
@@ -6702,26 +5061,18 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D205" s="2">
-        <v>43465</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D205">
+        <v>484</v>
       </c>
       <c r="E205">
-        <v>484</v>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G205">
         <v>3</v>
       </c>
     </row>
@@ -6733,26 +5084,18 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D206" s="2">
-        <v>43465</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D206">
+        <v>455</v>
       </c>
       <c r="E206">
-        <v>484</v>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G206">
         <v>3</v>
       </c>
     </row>
@@ -6764,26 +5107,18 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D207" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D207">
+        <v>450</v>
       </c>
       <c r="E207">
-        <v>455</v>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G207">
         <v>3</v>
       </c>
     </row>
@@ -6795,27 +5130,19 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D208" s="2">
-        <v>43830</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D208">
+        <v>450</v>
       </c>
       <c r="E208">
-        <v>455</v>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G208">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
@@ -6826,27 +5153,19 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D209" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D209">
+        <v>450</v>
       </c>
       <c r="E209">
-        <v>450</v>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G209">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
@@ -6857,26 +5176,18 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D210" s="2">
-        <v>44196</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D210">
+        <v>484</v>
       </c>
       <c r="E210">
-        <v>450</v>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G210">
         <v>3</v>
       </c>
     </row>
@@ -6888,27 +5199,19 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D211" s="2">
-        <v>44561</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D211">
+        <v>455</v>
       </c>
       <c r="E211">
-        <v>450</v>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G211">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -6919,27 +5222,19 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D212" s="2">
-        <v>44561</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D212">
+        <v>450</v>
       </c>
       <c r="E212">
-        <v>450</v>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G212">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -6950,26 +5245,18 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D213" s="2">
-        <v>44926</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D213">
+        <v>450</v>
       </c>
       <c r="E213">
-        <v>450</v>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G213">
         <v>4</v>
       </c>
     </row>
@@ -6981,26 +5268,18 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D214" s="2">
-        <v>44926</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D214">
+        <v>450</v>
       </c>
       <c r="E214">
-        <v>450</v>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G214">
         <v>4</v>
       </c>
     </row>
@@ -7012,27 +5291,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D215" s="2">
-        <v>43830</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D215">
+        <v>13</v>
       </c>
       <c r="E215">
-        <v>15</v>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G215">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216">
@@ -7043,26 +5314,18 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D216" s="2">
-        <v>43830</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D216">
+        <v>15</v>
       </c>
       <c r="E216">
-        <v>15</v>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G216">
         <v>16</v>
       </c>
     </row>
@@ -7074,27 +5337,19 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D217" s="2">
-        <v>43465</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D217">
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>13</v>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G217">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218">
@@ -7105,26 +5360,18 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D218" s="2">
-        <v>43465</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D218">
+        <v>11</v>
       </c>
       <c r="E218">
-        <v>13</v>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G218">
         <v>18</v>
       </c>
     </row>
@@ -7136,26 +5383,18 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D219" s="2">
-        <v>44561</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D219">
+        <v>11</v>
       </c>
       <c r="E219">
-        <v>11</v>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G219">
         <v>18</v>
       </c>
     </row>
@@ -7167,26 +5406,18 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D220" s="2">
-        <v>44561</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D220">
+        <v>13</v>
       </c>
       <c r="E220">
-        <v>11</v>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G220">
         <v>18</v>
       </c>
     </row>
@@ -7198,27 +5429,19 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D221" s="2">
-        <v>44926</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D221">
+        <v>15</v>
       </c>
       <c r="E221">
-        <v>11</v>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G221">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222">
@@ -7229,27 +5452,19 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D222" s="2">
-        <v>44926</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D222">
+        <v>8</v>
       </c>
       <c r="E222">
-        <v>11</v>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G222">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223">
@@ -7260,27 +5475,19 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D223" s="2">
-        <v>44196</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D223">
+        <v>11</v>
       </c>
       <c r="E223">
-        <v>8</v>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G223">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224">
@@ -7291,27 +5498,19 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D224" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D224">
+        <v>11</v>
       </c>
       <c r="E224">
-        <v>8</v>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G224">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225">
@@ -7322,26 +5521,18 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D225" s="2">
-        <v>44926</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D225">
+        <v>32</v>
       </c>
       <c r="E225">
-        <v>38</v>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G225">
         <v>15</v>
       </c>
     </row>
@@ -7353,27 +5544,19 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D226" s="2">
-        <v>44926</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D226">
+        <v>35</v>
       </c>
       <c r="E226">
-        <v>38</v>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G226">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227">
@@ -7384,27 +5567,19 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D227" s="2">
-        <v>43830</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D227">
+        <v>31</v>
       </c>
       <c r="E227">
-        <v>35</v>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G227">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
@@ -7415,26 +5590,18 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D228" s="2">
-        <v>43830</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D228">
+        <v>34</v>
       </c>
       <c r="E228">
-        <v>35</v>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G228">
         <v>14</v>
       </c>
     </row>
@@ -7446,27 +5613,19 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D229" s="2">
-        <v>44561</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D229">
+        <v>38</v>
       </c>
       <c r="E229">
-        <v>34</v>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G229">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230">
@@ -7477,27 +5636,19 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D230" s="2">
-        <v>44561</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D230">
+        <v>32</v>
       </c>
       <c r="E230">
-        <v>34</v>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G230">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231">
@@ -7508,27 +5659,19 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D231" s="2">
-        <v>43465</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D231">
+        <v>35</v>
       </c>
       <c r="E231">
-        <v>32</v>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G231">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -7539,26 +5682,18 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D232" s="2">
-        <v>43465</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D232">
+        <v>31</v>
       </c>
       <c r="E232">
-        <v>32</v>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G232">
         <v>15</v>
       </c>
     </row>
@@ -7570,27 +5705,19 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D233" s="2">
-        <v>44196</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D233">
+        <v>34</v>
       </c>
       <c r="E233">
-        <v>31</v>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G233">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234">
@@ -7601,26 +5728,18 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Área total existente em 31/12 dos efetivos da silvicultura</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="D234" s="2">
-        <v>44196</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D234">
+        <v>38</v>
       </c>
       <c r="E234">
-        <v>31</v>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Hectares</t>
-        </is>
-      </c>
-      <c r="G234">
         <v>15</v>
       </c>
     </row>

--- a/Municípios/Data/PEVS_area.xlsx
+++ b/Municípios/Data/PEVS_area.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E234"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,14 +397,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -420,14 +420,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -443,11 +443,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -466,7 +466,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D5">
@@ -489,14 +489,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -512,7 +512,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D7">
@@ -535,7 +535,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D8">
@@ -558,7 +558,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D9">
@@ -581,7 +581,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D10">
@@ -599,19 +599,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -627,11 +627,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -673,11 +673,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -696,37 +696,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Arauá</t>
+          <t>Areia Branca</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -742,7 +742,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D17">
@@ -765,14 +765,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -788,14 +788,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -811,14 +811,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -829,12 +829,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D21">
@@ -857,7 +857,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D22">
@@ -880,14 +880,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -903,14 +903,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -926,37 +926,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Areia Branca</t>
+          <t>Cristinápolis</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>260</v>
       </c>
       <c r="E26">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -972,11 +972,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D27">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -995,14 +995,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D28">
-        <v>260</v>
+        <v>646</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1018,14 +1018,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D29">
-        <v>255</v>
+        <v>664</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D30">
-        <v>646</v>
+        <v>220</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1059,19 +1059,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D31">
-        <v>664</v>
+        <v>260</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1087,11 +1087,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D32">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -1110,14 +1110,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D33">
-        <v>260</v>
+        <v>646</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D34">
-        <v>255</v>
+        <v>664</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1156,34 +1156,34 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D35">
-        <v>646</v>
+        <v>220</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cristinápolis</t>
+          <t>Estância</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D36">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1202,11 +1202,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D37">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1225,14 +1225,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D38">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1248,14 +1248,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D39">
-        <v>598</v>
+        <v>660</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1271,14 +1271,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>615</v>
+        <v>664</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1289,19 +1289,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D41">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1317,11 +1317,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D42">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D43">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1363,14 +1363,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D44">
-        <v>598</v>
+        <v>660</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1386,37 +1386,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>615</v>
+        <v>664</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Estância</t>
+          <t>Indiaroba</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D46">
-        <v>660</v>
+        <v>275</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D47">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -1455,14 +1455,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D48">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D49">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -1501,14 +1501,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D50">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1519,19 +1519,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D51">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1547,11 +1547,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D52">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E52">
         <v>6</v>
@@ -1570,14 +1570,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D53">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1593,11 +1593,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D54">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="E54">
         <v>6</v>
@@ -1616,37 +1616,37 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D55">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Indiaroba</t>
+          <t>Itabaiana</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D56">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D57">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D58">
@@ -1708,14 +1708,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D59">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E59">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -1731,14 +1731,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E60">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -1749,19 +1749,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D61">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D62">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D63">
@@ -1823,14 +1823,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D64">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E64">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
@@ -1846,37 +1846,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D65">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E65">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Itabaiana</t>
+          <t>Itabaianinha</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E66">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -1892,14 +1892,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D67">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E67">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -1915,14 +1915,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D68">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E68">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -1938,11 +1938,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D69">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E69">
         <v>12</v>
@@ -1956,19 +1956,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D70">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E70">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -1979,16 +1979,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D71">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E71">
         <v>12</v>
@@ -2007,14 +2007,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D72">
         <v>88</v>
       </c>
       <c r="E72">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -2030,83 +2030,83 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D73">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E73">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Itabaianinha</t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D74">
-        <v>84</v>
+        <v>2870</v>
       </c>
       <c r="E74">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Itabaianinha</t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D75">
-        <v>88</v>
+        <v>2837</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Itabaianinha</t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D76">
-        <v>94</v>
+        <v>2713</v>
       </c>
       <c r="E76">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2122,11 +2122,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D77">
-        <v>3013</v>
+        <v>2578</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2145,11 +2145,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D78">
-        <v>2870</v>
+        <v>2436</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2163,16 +2163,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D79">
-        <v>2837</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2186,16 +2186,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D80">
-        <v>2713</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -2209,16 +2209,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D81">
-        <v>2578</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>2890</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="D84">
-        <v>19</v>
+        <v>2856</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="D85">
-        <v>18</v>
+        <v>2731</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>2588</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2352,11 +2352,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D87">
-        <v>3033</v>
+        <v>2436</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2365,12 +2365,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t>Japaratuba</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2379,21 +2379,21 @@
         </is>
       </c>
       <c r="D88">
-        <v>2890</v>
+        <v>246</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t>Japaratuba</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2402,21 +2402,21 @@
         </is>
       </c>
       <c r="D89">
-        <v>2856</v>
+        <v>206</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t>Japaratuba</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2425,21 +2425,21 @@
         </is>
       </c>
       <c r="D90">
-        <v>2731</v>
+        <v>244</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t>Japaratuba</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2448,10 +2448,10 @@
         </is>
       </c>
       <c r="D91">
-        <v>2588</v>
+        <v>244</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -2467,14 +2467,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D92">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="E92">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2582,25 +2582,25 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D97">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Japaratuba</t>
+          <t>Japoatã</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2609,21 +2609,21 @@
         </is>
       </c>
       <c r="D98">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Japaratuba</t>
+          <t>Japoatã</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2632,21 +2632,21 @@
         </is>
       </c>
       <c r="D99">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="E99">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Japaratuba</t>
+          <t>Japoatã</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2655,21 +2655,21 @@
         </is>
       </c>
       <c r="D100">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="E100">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Japaratuba</t>
+          <t>Japoatã</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="D101">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="E101">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D102">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E102">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2812,25 +2812,25 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D107">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E107">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Japoatã</t>
+          <t>Lagarto</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2839,21 +2839,21 @@
         </is>
       </c>
       <c r="D108">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Japoatã</t>
+          <t>Lagarto</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2862,21 +2862,21 @@
         </is>
       </c>
       <c r="D109">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Japoatã</t>
+          <t>Lagarto</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2885,21 +2885,21 @@
         </is>
       </c>
       <c r="D110">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Japoatã</t>
+          <t>Lagarto</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="D111">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
@@ -2922,19 +2922,19 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D112">
         <v>3</v>
       </c>
       <c r="E112">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -2945,19 +2945,19 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D113">
         <v>3</v>
       </c>
       <c r="E113">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D114">
@@ -2991,16 +2991,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115">
         <v>21</v>
@@ -3009,7 +3009,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Lagarto</t>
+          <t>Neópolis</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3019,112 +3019,112 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>378</v>
       </c>
       <c r="E116">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Lagarto</t>
+          <t>Neópolis</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>424</v>
       </c>
       <c r="E117">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Lagarto</t>
+          <t>Neópolis</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>394</v>
       </c>
       <c r="E118">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lagarto</t>
+          <t>Neópolis</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>410</v>
       </c>
       <c r="E119">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Lagarto</t>
+          <t>Neópolis</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D120">
+        <v>430</v>
+      </c>
+      <c r="E120">
         <v>3</v>
-      </c>
-      <c r="E120">
-        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lagarto</t>
+          <t>Neópolis</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3134,14 +3134,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>378</v>
       </c>
       <c r="E121">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -3152,16 +3152,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D122">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="E122">
         <v>4</v>
@@ -3175,19 +3175,19 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D123">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -3198,19 +3198,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D124">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -3221,25 +3221,25 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D125">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="E125">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Neópolis</t>
+          <t>Pacatuba</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3249,112 +3249,112 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D126">
-        <v>410</v>
+        <v>109</v>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Neópolis</t>
+          <t>Pacatuba</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D127">
-        <v>378</v>
+        <v>109</v>
       </c>
       <c r="E127">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Neópolis</t>
+          <t>Pacatuba</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D128">
-        <v>378</v>
+        <v>112</v>
       </c>
       <c r="E128">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Neópolis</t>
+          <t>Pacatuba</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D129">
-        <v>424</v>
+        <v>115</v>
       </c>
       <c r="E129">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Neópolis</t>
+          <t>Pacatuba</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D130">
-        <v>394</v>
+        <v>116</v>
       </c>
       <c r="E130">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Neópolis</t>
+          <t>Pacatuba</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3364,43 +3364,43 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D131">
-        <v>410</v>
+        <v>109</v>
       </c>
       <c r="E131">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Nossa Senhora do Socorro</t>
+          <t>Pacatuba</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D132">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E132">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Nossa Senhora do Socorro</t>
+          <t>Pacatuba</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3410,14 +3410,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D133">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E133">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
@@ -3428,16 +3428,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D134">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E134">
         <v>11</v>
@@ -3451,25 +3451,25 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D135">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E135">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Pacatuba</t>
+          <t>Propriá</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3483,16 +3483,16 @@
         </is>
       </c>
       <c r="D136">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="E136">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Pacatuba</t>
+          <t>Propriá</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3506,16 +3506,16 @@
         </is>
       </c>
       <c r="D137">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="E137">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Pacatuba</t>
+          <t>Propriá</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3529,39 +3529,39 @@
         </is>
       </c>
       <c r="D138">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="E138">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Pacatuba</t>
+          <t>Propriá</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D139">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="E139">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Pacatuba</t>
+          <t>Propriá</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3571,20 +3571,20 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D140">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="E140">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Pacatuba</t>
+          <t>Propriá</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3594,20 +3594,20 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D141">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="E141">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pacatuba</t>
+          <t>Propriá</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3617,20 +3617,20 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D142">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="E142">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pacatuba</t>
+          <t>Propriá</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3640,20 +3640,20 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D143">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="E143">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Propriá</t>
+          <t>Riachão do Dantas</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3663,20 +3663,20 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D144">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E144">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Propriá</t>
+          <t>Riachão do Dantas</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3686,20 +3686,20 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D145">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E145">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Propriá</t>
+          <t>Riachão do Dantas</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3709,43 +3709,43 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D146">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E146">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Propriá</t>
+          <t>Riachão do Dantas</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D147">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E147">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Propriá</t>
+          <t>Riachão do Dantas</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3755,20 +3755,20 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D148">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E148">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Propriá</t>
+          <t>Riachão do Dantas</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3778,14 +3778,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D149">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E149">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
@@ -3796,19 +3796,19 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D150">
         <v>11</v>
       </c>
       <c r="E150">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
@@ -3819,12 +3819,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D151">
@@ -3837,7 +3837,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Riachão do Dantas</t>
+          <t>Salgado</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3847,20 +3847,20 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D152">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="E152">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Riachão do Dantas</t>
+          <t>Salgado</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3870,20 +3870,20 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D153">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="E153">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Riachão do Dantas</t>
+          <t>Salgado</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3893,66 +3893,66 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D154">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E154">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Riachão do Dantas</t>
+          <t>Salgado</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D155">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E155">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Riachão do Dantas</t>
+          <t>Salgado</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D156">
+        <v>60</v>
+      </c>
+      <c r="E156">
         <v>11</v>
-      </c>
-      <c r="E156">
-        <v>18</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Riachão do Dantas</t>
+          <t>Salgado</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3962,20 +3962,20 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D157">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="E157">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Riachão do Dantas</t>
+          <t>Salgado</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3985,20 +3985,20 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D158">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="E158">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Riachão do Dantas</t>
+          <t>Salgado</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4008,14 +4008,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D159">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E159">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -4026,19 +4026,19 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D160">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E160">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
@@ -4049,25 +4049,25 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D161">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E161">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Salgado</t>
+          <t>Santa Luzia do Itanhy</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4077,20 +4077,20 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D162">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E162">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Salgado</t>
+          <t>Santa Luzia do Itanhy</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4100,20 +4100,20 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D163">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E163">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Salgado</t>
+          <t>Santa Luzia do Itanhy</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4123,129 +4123,129 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D164">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="E164">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Salgado</t>
+          <t>Santa Luzia do Itanhy</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D165">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E165">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Salgado</t>
+          <t>Santa Luzia do Itanhy</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D166">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E166">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Salgado</t>
+          <t>Santa Luzia do Itanhy</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D167">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="E167">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Salgado</t>
+          <t>Santa Luzia do Itanhy</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D168">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="E168">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Salgado</t>
+          <t>Santa Luzia do Itanhy</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D169">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="E169">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -4256,19 +4256,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D170">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -4279,19 +4279,19 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Outras espécies</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D171">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -4302,16 +4302,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D172">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E172">
         <v>8</v>
@@ -4325,16 +4325,16 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D173">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E173">
         <v>8</v>
@@ -4348,16 +4348,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D174">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E174">
         <v>8</v>
@@ -4371,19 +4371,19 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176">
@@ -4394,140 +4394,140 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="E176">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Santa Luzia do Itanhy</t>
+          <t>Santana do São Francisco</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Santa Luzia do Itanhy</t>
+          <t>Santana do São Francisco</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E178">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Santa Luzia do Itanhy</t>
+          <t>Santana do São Francisco</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Outras espécies</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D179">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Santa Luzia do Itanhy</t>
+          <t>Santana do São Francisco</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D180">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="E180">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Santa Luzia do Itanhy</t>
+          <t>Santana do São Francisco</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D181">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="E181">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Santa Luzia do Itanhy</t>
+          <t>Santana do São Francisco</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4537,20 +4537,20 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D182">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="E182">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Santa Luzia do Itanhy</t>
+          <t>Santana do São Francisco</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4560,20 +4560,20 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D183">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="E183">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Santa Luzia do Itanhy</t>
+          <t>Santana do São Francisco</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4583,14 +4583,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D184">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="E184">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185">
@@ -4601,19 +4601,19 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D185">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E185">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
@@ -4624,25 +4624,25 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D186">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E186">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Santana do São Francisco</t>
+          <t>Santo Amaro das Brotas</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4652,20 +4652,20 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D187">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E187">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Santana do São Francisco</t>
+          <t>Santo Amaro das Brotas</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4675,20 +4675,20 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D188">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E188">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Santana do São Francisco</t>
+          <t>Santo Amaro das Brotas</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4698,66 +4698,66 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D189">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="E189">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Santana do São Francisco</t>
+          <t>Santo Amaro das Brotas</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D190">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E190">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Santana do São Francisco</t>
+          <t>Santo Amaro das Brotas</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D191">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E191">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Santana do São Francisco</t>
+          <t>Santo Amaro das Brotas</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4767,20 +4767,20 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D192">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E192">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Santana do São Francisco</t>
+          <t>Santo Amaro das Brotas</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4790,20 +4790,20 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D193">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E193">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Santana do São Francisco</t>
+          <t>Santo Amaro das Brotas</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D194">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="E194">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
@@ -4831,16 +4831,16 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D195">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E195">
         <v>13</v>
@@ -4854,25 +4854,25 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D196">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E196">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Santo Amaro das Brotas</t>
+          <t>São Cristóvão</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4882,20 +4882,20 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D197">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="E197">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Santo Amaro das Brotas</t>
+          <t>São Cristóvão</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4905,20 +4905,20 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D198">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="E198">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Santo Amaro das Brotas</t>
+          <t>São Cristóvão</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4928,43 +4928,43 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D199">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="E199">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Santo Amaro das Brotas</t>
+          <t>São Cristóvão</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D200">
-        <v>91</v>
+        <v>450</v>
       </c>
       <c r="E200">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Santo Amaro das Brotas</t>
+          <t>São Cristóvão</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4978,16 +4978,16 @@
         </is>
       </c>
       <c r="D201">
-        <v>100</v>
+        <v>455</v>
       </c>
       <c r="E201">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Santo Amaro das Brotas</t>
+          <t>São Cristóvão</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5001,16 +5001,16 @@
         </is>
       </c>
       <c r="D202">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="E202">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Santo Amaro das Brotas</t>
+          <t>São Cristóvão</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5024,16 +5024,16 @@
         </is>
       </c>
       <c r="D203">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="E203">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Santo Amaro das Brotas</t>
+          <t>São Cristóvão</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5047,16 +5047,16 @@
         </is>
       </c>
       <c r="D204">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="E204">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>São Cristóvão</t>
+          <t>Tomar do Geru</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5066,20 +5066,20 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D205">
-        <v>484</v>
+        <v>15</v>
       </c>
       <c r="E205">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>São Cristóvão</t>
+          <t>Tomar do Geru</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5089,20 +5089,20 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D206">
-        <v>455</v>
+        <v>8</v>
       </c>
       <c r="E206">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>São Cristóvão</t>
+          <t>Tomar do Geru</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5112,20 +5112,20 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D207">
-        <v>450</v>
+        <v>11</v>
       </c>
       <c r="E207">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>São Cristóvão</t>
+          <t>Tomar do Geru</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5135,43 +5135,43 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D208">
-        <v>450</v>
+        <v>11</v>
       </c>
       <c r="E208">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>São Cristóvão</t>
+          <t>Tomar do Geru</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D209">
-        <v>450</v>
+        <v>15</v>
       </c>
       <c r="E209">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>São Cristóvão</t>
+          <t>Tomar do Geru</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5181,20 +5181,20 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D210">
-        <v>484</v>
+        <v>8</v>
       </c>
       <c r="E210">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>São Cristóvão</t>
+          <t>Tomar do Geru</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5204,20 +5204,20 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D211">
-        <v>455</v>
+        <v>11</v>
       </c>
       <c r="E211">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>São Cristóvão</t>
+          <t>Tomar do Geru</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5227,66 +5227,66 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D212">
-        <v>450</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>São Cristóvão</t>
+          <t>Umbaúba</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D213">
-        <v>450</v>
+        <v>35</v>
       </c>
       <c r="E213">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>São Cristóvão</t>
+          <t>Umbaúba</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Eucalipto</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D214">
-        <v>450</v>
+        <v>31</v>
       </c>
       <c r="E214">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Tomar do Geru</t>
+          <t>Umbaúba</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5296,20 +5296,20 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D215">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E215">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Tomar do Geru</t>
+          <t>Umbaúba</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5319,20 +5319,20 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D216">
+        <v>38</v>
+      </c>
+      <c r="E216">
         <v>15</v>
-      </c>
-      <c r="E216">
-        <v>16</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Tomar do Geru</t>
+          <t>Umbaúba</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5342,66 +5342,66 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E217">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Tomar do Geru</t>
+          <t>Umbaúba</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D218">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E218">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Tomar do Geru</t>
+          <t>Umbaúba</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Eucalipto</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D219">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E219">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Tomar do Geru</t>
+          <t>Umbaúba</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5411,20 +5411,20 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D220">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E220">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Tomar do Geru</t>
+          <t>Umbaúba</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5434,20 +5434,20 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D221">
+        <v>38</v>
+      </c>
+      <c r="E221">
         <v>15</v>
-      </c>
-      <c r="E221">
-        <v>16</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Tomar do Geru</t>
+          <t>Umbaúba</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5457,290 +5457,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D222">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E222">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Tomar do Geru</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D223">
-        <v>11</v>
-      </c>
-      <c r="E223">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Tomar do Geru</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D224">
-        <v>11</v>
-      </c>
-      <c r="E224">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Umbaúba</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D225">
-        <v>32</v>
-      </c>
-      <c r="E225">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Umbaúba</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D226">
-        <v>35</v>
-      </c>
-      <c r="E226">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Umbaúba</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D227">
-        <v>31</v>
-      </c>
-      <c r="E227">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Umbaúba</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D228">
-        <v>34</v>
-      </c>
-      <c r="E228">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Umbaúba</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Eucalipto</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D229">
-        <v>38</v>
-      </c>
-      <c r="E229">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Umbaúba</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D230">
-        <v>32</v>
-      </c>
-      <c r="E230">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Umbaúba</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D231">
-        <v>35</v>
-      </c>
-      <c r="E231">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Umbaúba</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D232">
-        <v>31</v>
-      </c>
-      <c r="E232">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Umbaúba</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D233">
-        <v>34</v>
-      </c>
-      <c r="E233">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Umbaúba</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D234">
-        <v>38</v>
-      </c>
-      <c r="E234">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
